--- a/machine learning models/excel_data/Glucose_PH_200_Data_Points.xlsx
+++ b/machine learning models/excel_data/Glucose_PH_200_Data_Points.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\MachineLearningModels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\PycharmProjects\Alquimia\machine learning models\excel_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A9D16CF-D63A-4267-8F28-D34EFD1A326F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBF57C3-0B27-473F-B71A-BCD8CC4E658F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="inputs_calculations" sheetId="2" r:id="rId1"/>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -460,15 +460,15 @@
   <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6328125" customWidth="1"/>
+    <col min="2" max="2" width="24.90625" customWidth="1"/>
+    <col min="3" max="3" width="11.6328125" customWidth="1"/>
+    <col min="10" max="10" width="14.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -496,7 +496,7 @@
         <v>6.0851100235128701</v>
       </c>
       <c r="E2">
-        <f>B2/180*12*6</f>
+        <f t="shared" ref="E2:E33" si="0">B2/180*12*6</f>
         <v>4</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -517,7 +517,7 @@
         <v>7.6016224672107899</v>
       </c>
       <c r="E3">
-        <f>B3/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J3" t="s">
@@ -538,7 +538,7 @@
         <v>4.0005718740867247</v>
       </c>
       <c r="E4">
-        <f>B4/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -559,7 +559,7 @@
         <v>5.5116628631591986</v>
       </c>
       <c r="E5">
-        <f>B5/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -580,7 +580,7 @@
         <v>4.7337794540855649</v>
       </c>
       <c r="E6">
-        <f>B6/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -601,7 +601,7 @@
         <v>4.4616929738439888</v>
       </c>
       <c r="E7">
-        <f>B7/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -622,7 +622,7 @@
         <v>4.9313010568883549</v>
       </c>
       <c r="E8">
-        <f>B8/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -643,7 +643,7 @@
         <v>5.7278036352152384</v>
       </c>
       <c r="E9">
-        <f>B9/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -664,7 +664,7 @@
         <v>5.9838373711533492</v>
       </c>
       <c r="E10">
-        <f>B10/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J10" s="2" t="s">
@@ -685,7 +685,7 @@
         <v>6.6940836700167843</v>
       </c>
       <c r="E11">
-        <f>B11/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -700,7 +700,7 @@
         <v>6.0959725720164739</v>
       </c>
       <c r="E12">
-        <f>B12/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -715,7 +715,7 @@
         <v>7.4260975019837971</v>
       </c>
       <c r="E13">
-        <f>B13/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -730,7 +730,7 @@
         <v>5.0222612486575873</v>
       </c>
       <c r="E14">
-        <f>B14/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -745,7 +745,7 @@
         <v>8.3905871819547269</v>
       </c>
       <c r="E15">
-        <f>B15/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>4.136937965989631</v>
       </c>
       <c r="E16">
-        <f>B16/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -775,7 +775,7 @@
         <v>7.3523375508920115</v>
       </c>
       <c r="E17">
-        <f>B17/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -790,7 +790,7 @@
         <v>6.0865240118356354</v>
       </c>
       <c r="E18">
-        <f>B18/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -805,7 +805,7 @@
         <v>6.7934491422287584</v>
       </c>
       <c r="E19">
-        <f>B19/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -820,7 +820,7 @@
         <v>4.7019346929761685</v>
       </c>
       <c r="E20">
-        <f>B20/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>4.9905074454243943</v>
       </c>
       <c r="E21">
-        <f>B21/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>8.0037228433776839</v>
       </c>
       <c r="E22">
-        <f>B22/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -865,7 +865,7 @@
         <v>8.8413078785969876</v>
       </c>
       <c r="E23">
-        <f>B23/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -880,7 +880,7 @@
         <v>5.5671208907962146</v>
       </c>
       <c r="E24">
-        <f>B24/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -895,7 +895,7 @@
         <v>7.4616130783465699</v>
       </c>
       <c r="E25">
-        <f>B25/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -910,7 +910,7 @@
         <v>8.3819457614801927</v>
       </c>
       <c r="E26">
-        <f>B26/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -925,7 +925,7 @@
         <v>8.4730333175192367</v>
       </c>
       <c r="E27">
-        <f>B27/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -940,7 +940,7 @@
         <v>4.4252210568488897</v>
       </c>
       <c r="E28">
-        <f>B28/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -955,7 +955,7 @@
         <v>4.1952739161644121</v>
       </c>
       <c r="E29">
-        <f>B29/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>4.8491520978228442</v>
       </c>
       <c r="E30">
-        <f>B30/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -985,7 +985,7 @@
         <v>8.3907125171470653</v>
       </c>
       <c r="E31">
-        <f>B31/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
         <v>4.4917341691652508</v>
       </c>
       <c r="E32">
-        <f>B32/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
         <v>6.1055381250252605</v>
       </c>
       <c r="E33">
-        <f>B33/180*12*6</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
         <v>8.7894476507525106</v>
       </c>
       <c r="E34">
-        <f>B34/180*12*6</f>
+        <f t="shared" ref="E34:E65" si="1">B34/180*12*6</f>
         <v>4</v>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
         <v>6.6658264248650854</v>
       </c>
       <c r="E35">
-        <f>B35/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1060,7 +1060,7 @@
         <v>7.4593855697523672</v>
       </c>
       <c r="E36">
-        <f>B36/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
         <v>5.5775781550303147</v>
       </c>
       <c r="E37">
-        <f>B37/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1090,7 +1090,7 @@
         <v>7.4325046384079183</v>
       </c>
       <c r="E38">
-        <f>B38/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
         <v>8.1731283594868636</v>
       </c>
       <c r="E39">
-        <f>B39/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
         <v>4.0914413867209589</v>
       </c>
       <c r="E40">
-        <f>B40/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
         <v>7.750721574724837</v>
       </c>
       <c r="E41">
-        <f>B41/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1150,7 +1150,7 @@
         <v>8.9443054445324748</v>
       </c>
       <c r="E42">
-        <f>B42/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1165,7 +1165,7 @@
         <v>7.740828271899197</v>
       </c>
       <c r="E43">
-        <f>B43/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
         <v>5.402219960322026</v>
       </c>
       <c r="E44">
-        <f>B44/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
         <v>7.9463966422574428</v>
       </c>
       <c r="E45">
-        <f>B45/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1210,7 +1210,7 @@
         <v>4.5161300328882099</v>
       </c>
       <c r="E46">
-        <f>B46/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
         <v>6.2394676308795258</v>
       </c>
       <c r="E47">
-        <f>B47/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
         <v>8.542977515465477</v>
       </c>
       <c r="E48">
-        <f>B48/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1255,7 +1255,7 @@
         <v>5.4680707418683969</v>
       </c>
       <c r="E49">
-        <f>B49/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
         <v>5.4388766929317436</v>
       </c>
       <c r="E50">
-        <f>B50/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
         <v>4.6501428605913881</v>
       </c>
       <c r="E51">
-        <f>B51/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1300,7 +1300,7 @@
         <v>4.0968347893514849</v>
       </c>
       <c r="E52">
-        <f>B52/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1315,7 +1315,7 @@
         <v>7.3941776646994546</v>
       </c>
       <c r="E53">
-        <f>B53/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
         <v>5.0581405800002948</v>
       </c>
       <c r="E54">
-        <f>B54/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
         <v>5.3277332968611315</v>
       </c>
       <c r="E55">
-        <f>B55/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
         <v>6.4578657964016912</v>
       </c>
       <c r="E56">
-        <f>B56/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1375,7 +1375,7 @@
         <v>4.2668127255854023</v>
       </c>
       <c r="E57">
-        <f>B57/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>6.8705880274600659</v>
       </c>
       <c r="E58">
-        <f>B58/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
         <v>4.7336428745290506</v>
       </c>
       <c r="E59">
-        <f>B59/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
         <v>6.946527684516421</v>
       </c>
       <c r="E60">
-        <f>B60/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
         <v>7.4987918001046561</v>
       </c>
       <c r="E61">
-        <f>B61/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1450,7 +1450,7 @@
         <v>4.511672144139129</v>
       </c>
       <c r="E62">
-        <f>B62/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1465,7 +1465,7 @@
         <v>6.0702799390978415</v>
       </c>
       <c r="E63">
-        <f>B63/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1480,7 +1480,7 @@
         <v>7.4720007886387254</v>
       </c>
       <c r="E64">
-        <f>B64/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
         <v>6.0708963476345135</v>
       </c>
       <c r="E65">
-        <f>B65/180*12*6</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
@@ -1510,7 +1510,7 @@
         <v>4.2497672947304359</v>
       </c>
       <c r="E66">
-        <f>B66/180*12*6</f>
+        <f t="shared" ref="E66:E97" si="2">B66/180*12*6</f>
         <v>4</v>
       </c>
     </row>
@@ -1525,7 +1525,7 @@
         <v>6.6794820295775583</v>
       </c>
       <c r="E67">
-        <f>B67/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1540,7 +1540,7 @@
         <v>7.3189732260989437</v>
       </c>
       <c r="E68">
-        <f>B68/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
         <v>6.5744455602915428</v>
       </c>
       <c r="E69">
-        <f>B69/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
         <v>8.7229737799540672</v>
       </c>
       <c r="E70">
-        <f>B70/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
         <v>6.9327752025099647</v>
       </c>
       <c r="E71">
-        <f>B71/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
         <v>8.5170095764394169</v>
       </c>
       <c r="E72">
-        <f>B72/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
         <v>4.687373520731188</v>
       </c>
       <c r="E73">
-        <f>B73/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
         <v>4.6963817362537927</v>
       </c>
       <c r="E74">
-        <f>B74/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1645,7 +1645,7 @@
         <v>8.03695644354762</v>
       </c>
       <c r="E75">
-        <f>B75/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1660,7 +1660,7 @@
         <v>5.9883841849276678</v>
       </c>
       <c r="E76">
-        <f>B76/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
         <v>4.8267709855846643</v>
       </c>
       <c r="E77">
-        <f>B77/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
         <v>8.6375429019801686</v>
       </c>
       <c r="E78">
-        <f>B78/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
         <v>5.7388292987275324</v>
       </c>
       <c r="E79">
-        <f>B79/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
         <v>7.7540605156807771</v>
       </c>
       <c r="E80">
-        <f>B80/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
         <v>7.6299899267522573</v>
       </c>
       <c r="E81">
-        <f>B81/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
         <v>8.416530456029049</v>
       </c>
       <c r="E82">
-        <f>B82/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
         <v>7.1183610352780446</v>
       </c>
       <c r="E83">
-        <f>B83/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
         <v>7.7547121701366857</v>
       </c>
       <c r="E84">
-        <f>B84/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1795,7 +1795,7 @@
         <v>5.7444917098892123</v>
       </c>
       <c r="E85">
-        <f>B85/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
         <v>5.3496394588251306</v>
       </c>
       <c r="E86">
-        <f>B86/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
         <v>8.4794310909803343</v>
       </c>
       <c r="E87">
-        <f>B87/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
         <v>6.1404559493564745</v>
       </c>
       <c r="E88">
-        <f>B88/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
         <v>8.8242002357419267</v>
       </c>
       <c r="E89">
-        <f>B89/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1870,7 +1870,7 @@
         <v>7.3172074890922403</v>
       </c>
       <c r="E90">
-        <f>B90/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
         <v>7.1084786010456087</v>
       </c>
       <c r="E91">
-        <f>B91/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1900,7 +1900,7 @@
         <v>4.573729864766876</v>
       </c>
       <c r="E92">
-        <f>B92/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1915,7 +1915,7 @@
         <v>8.7474462935353561</v>
       </c>
       <c r="E93">
-        <f>B93/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
         <v>6.2495606673997024</v>
       </c>
       <c r="E94">
-        <f>B94/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
         <v>6.8919480719356585</v>
       </c>
       <c r="E95">
-        <f>B95/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
         <v>6.0406840138064055</v>
       </c>
       <c r="E96">
-        <f>B96/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
         <v>5.1851349012151386</v>
       </c>
       <c r="E97">
-        <f>B97/180*12*6</f>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
     </row>
@@ -1990,7 +1990,7 @@
         <v>8.5168976028112695</v>
       </c>
       <c r="E98">
-        <f>B98/180*12*6</f>
+        <f t="shared" ref="E98:E129" si="3">B98/180*12*6</f>
         <v>4</v>
       </c>
     </row>
@@ -2005,7 +2005,7 @@
         <v>6.8683974333614293</v>
       </c>
       <c r="E99">
-        <f>B99/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
         <v>4.0143516351557951</v>
       </c>
       <c r="E100">
-        <f>B100/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
         <v>7.0857245681036192</v>
       </c>
       <c r="E101">
-        <f>B101/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2050,7 +2050,7 @@
         <v>5.6332245088604811</v>
       </c>
       <c r="E102">
-        <f>B102/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2065,7 +2065,7 @@
         <v>6.635290511288046</v>
       </c>
       <c r="E103">
-        <f>B103/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2080,7 +2080,7 @@
         <v>8.4297104965538736</v>
       </c>
       <c r="E104">
-        <f>B104/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
         <v>5.7863488000124992</v>
       </c>
       <c r="E105">
-        <f>B105/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2110,7 +2110,7 @@
         <v>8.5426757545989958</v>
       </c>
       <c r="E106">
-        <f>B106/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
         <v>7.1168005789590136</v>
       </c>
       <c r="E107">
-        <f>B107/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2140,7 +2140,7 @@
         <v>4.0791062142327812</v>
       </c>
       <c r="E108">
-        <f>B108/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
         <v>8.6471861687188074</v>
       </c>
       <c r="E109">
-        <f>B109/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2170,7 +2170,7 @@
         <v>7.45448458758462</v>
       </c>
       <c r="E110">
-        <f>B110/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
         <v>8.9866142522574037</v>
       </c>
       <c r="E111">
-        <f>B111/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2200,7 +2200,7 @@
         <v>4.8617025417266424</v>
       </c>
       <c r="E112">
-        <f>B112/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
         <v>4.6856787481443885</v>
       </c>
       <c r="E113">
-        <f>B113/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2230,7 +2230,7 @@
         <v>8.6629773151858167</v>
       </c>
       <c r="E114">
-        <f>B114/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
         <v>7.4840908074495012</v>
       </c>
       <c r="E115">
-        <f>B115/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
         <v>4.3300008636103122</v>
       </c>
       <c r="E116">
-        <f>B116/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2275,7 +2275,7 @@
         <v>7.7773152630123317</v>
       </c>
       <c r="E117">
-        <f>B117/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2290,7 +2290,7 @@
         <v>7.7693809423062321</v>
       </c>
       <c r="E118">
-        <f>B118/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2305,7 +2305,7 @@
         <v>8.6151226777324155</v>
       </c>
       <c r="E119">
-        <f>B119/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
         <v>7.5576237931423584</v>
       </c>
       <c r="E120">
-        <f>B120/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2335,7 +2335,7 @@
         <v>4.6213548098608239</v>
       </c>
       <c r="E121">
-        <f>B121/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
         <v>4.0994006691989782</v>
       </c>
       <c r="E122">
-        <f>B122/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2365,7 +2365,7 @@
         <v>4.1310549343885965</v>
       </c>
       <c r="E123">
-        <f>B123/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2380,7 +2380,7 @@
         <v>4.1415324401039726</v>
       </c>
       <c r="E124">
-        <f>B124/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
         <v>5.2310553380152296</v>
       </c>
       <c r="E125">
-        <f>B125/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2410,7 +2410,7 @@
         <v>8.3001397434144408</v>
       </c>
       <c r="E126">
-        <f>B126/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
         <v>6.6941553217082639</v>
       </c>
       <c r="E127">
-        <f>B127/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2440,7 +2440,7 @@
         <v>6.7641098934288291</v>
       </c>
       <c r="E128">
-        <f>B128/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2455,7 +2455,7 @@
         <v>8.2101544617980284</v>
       </c>
       <c r="E129">
-        <f>B129/180*12*6</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2470,7 +2470,7 @@
         <v>4.6208665755995559</v>
       </c>
       <c r="E130">
-        <f>B130/180*12*6</f>
+        <f t="shared" ref="E130:E161" si="4">B130/180*12*6</f>
         <v>4</v>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
         <v>5.3959183950556975</v>
       </c>
       <c r="E131">
-        <f>B131/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2500,7 +2500,7 @@
         <v>6.9287963572914393</v>
       </c>
       <c r="E132">
-        <f>B132/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
         <v>8.8479787415983715</v>
       </c>
       <c r="E133">
-        <f>B133/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2530,7 +2530,7 @@
         <v>6.80515109627855</v>
       </c>
       <c r="E134">
-        <f>B134/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
         <v>4.0932364468647151</v>
       </c>
       <c r="E135">
-        <f>B135/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2560,7 +2560,7 @@
         <v>8.0031633634030825</v>
       </c>
       <c r="E136">
-        <f>B136/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2575,7 +2575,7 @@
         <v>5.1648713692051018</v>
       </c>
       <c r="E137">
-        <f>B137/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2590,7 +2590,7 @@
         <v>8.0355259780938955</v>
       </c>
       <c r="E138">
-        <f>B138/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
         <v>5.9393032203208591</v>
       </c>
       <c r="E139">
-        <f>B139/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2620,7 +2620,7 @@
         <v>8.3177092727971438</v>
       </c>
       <c r="E140">
-        <f>B140/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2635,7 +2635,7 @@
         <v>7.7356082136859232</v>
       </c>
       <c r="E141">
-        <f>B141/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2650,7 +2650,7 @@
         <v>6.7812011699520944</v>
       </c>
       <c r="E142">
-        <f>B142/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
         <v>4.6822761283034247</v>
       </c>
       <c r="E143">
-        <f>B143/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2680,7 +2680,7 @@
         <v>4.2995884475610584</v>
       </c>
       <c r="E144">
-        <f>B144/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2695,7 +2695,7 @@
         <v>4.6067172787036865</v>
       </c>
       <c r="E145">
-        <f>B145/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
         <v>4.222759392723809</v>
       </c>
       <c r="E146">
-        <f>B146/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2725,7 +2725,7 @@
         <v>4.5374706455304645</v>
       </c>
       <c r="E147">
-        <f>B147/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2740,7 +2740,7 @@
         <v>5.128546693039274</v>
       </c>
       <c r="E148">
-        <f>B148/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
         <v>7.5649449019133836</v>
       </c>
       <c r="E149">
-        <f>B149/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2770,7 +2770,7 @@
         <v>6.7985849102707121</v>
       </c>
       <c r="E150">
-        <f>B150/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
         <v>4.0627799007955794</v>
       </c>
       <c r="E151">
-        <f>B151/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
         <v>4.3598713984474342</v>
       </c>
       <c r="E152">
-        <f>B152/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2815,7 +2815,7 @@
         <v>8.8363816500013606</v>
       </c>
       <c r="E153">
-        <f>B153/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
         <v>6.8405023095997102</v>
       </c>
       <c r="E154">
-        <f>B154/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2845,7 +2845,7 @@
         <v>5.016466173304952</v>
       </c>
       <c r="E155">
-        <f>B155/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
         <v>5.2616287228516168</v>
       </c>
       <c r="E156">
-        <f>B156/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2875,7 +2875,7 @@
         <v>7.7191292703754648</v>
       </c>
       <c r="E157">
-        <f>B157/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
         <v>4.9771474055465941</v>
       </c>
       <c r="E158">
-        <f>B158/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2905,7 +2905,7 @@
         <v>6.9067946363662891</v>
       </c>
       <c r="E159">
-        <f>B159/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
         <v>8.8500999454415616</v>
       </c>
       <c r="E160">
-        <f>B160/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
         <v>8.2341440074501762</v>
       </c>
       <c r="E161">
-        <f>B161/180*12*6</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
         <v>5.1992387957379309</v>
       </c>
       <c r="E162">
-        <f>B162/180*12*6</f>
+        <f t="shared" ref="E162:E193" si="5">B162/180*12*6</f>
         <v>4</v>
       </c>
     </row>
@@ -2965,7 +2965,7 @@
         <v>6.4688485713436492</v>
       </c>
       <c r="E163">
-        <f>B163/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
         <v>7.0997785919068992</v>
       </c>
       <c r="E164">
-        <f>B164/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -2995,7 +2995,7 @@
         <v>8.1449044977508933</v>
       </c>
       <c r="E165">
-        <f>B165/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3010,7 +3010,7 @@
         <v>4.7839569732304215</v>
       </c>
       <c r="E166">
-        <f>B166/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
         <v>4.0928810108870479</v>
       </c>
       <c r="E167">
-        <f>B167/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3040,7 +3040,7 @@
         <v>4.3501107185961114</v>
       </c>
       <c r="E168">
-        <f>B168/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3055,7 +3055,7 @@
         <v>6.4317255546851593</v>
       </c>
       <c r="E169">
-        <f>B169/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3070,7 +3070,7 @@
         <v>7.0316473082666517</v>
       </c>
       <c r="E170">
-        <f>B170/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
         <v>6.8442571854324061</v>
       </c>
       <c r="E171">
-        <f>B171/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3100,7 +3100,7 @@
         <v>5.5868120466108042</v>
       </c>
       <c r="E172">
-        <f>B172/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3115,7 +3115,7 @@
         <v>8.9430807720622454</v>
       </c>
       <c r="E173">
-        <f>B173/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3130,7 +3130,7 @@
         <v>6.8987260962289847</v>
       </c>
       <c r="E174">
-        <f>B174/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3145,7 +3145,7 @@
         <v>5.9007058631177518</v>
       </c>
       <c r="E175">
-        <f>B175/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3160,7 +3160,7 @@
         <v>6.754741095589484</v>
       </c>
       <c r="E176">
-        <f>B176/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3175,7 +3175,7 @@
         <v>7.7266721545325101</v>
       </c>
       <c r="E177">
-        <f>B177/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3190,7 +3190,7 @@
         <v>7.3461644672659228</v>
       </c>
       <c r="E178">
-        <f>B178/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3205,7 +3205,7 @@
         <v>5.3245977883140467</v>
       </c>
       <c r="E179">
-        <f>B179/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3220,7 +3220,7 @@
         <v>4.3316741721422076</v>
       </c>
       <c r="E180">
-        <f>B180/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3235,7 +3235,7 @@
         <v>5.8504209895705319</v>
       </c>
       <c r="E181">
-        <f>B181/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
         <v>7.1485875351078221</v>
       </c>
       <c r="E182">
-        <f>B182/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3265,7 +3265,7 @@
         <v>5.0508700495741978</v>
       </c>
       <c r="E183">
-        <f>B183/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
         <v>7.7637777686940694</v>
       </c>
       <c r="E184">
-        <f>B184/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
         <v>4.3326824067705747</v>
       </c>
       <c r="E185">
-        <f>B185/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3310,7 +3310,7 @@
         <v>5.301575492892705</v>
       </c>
       <c r="E186">
-        <f>B186/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
         <v>8.0237728187167274</v>
       </c>
       <c r="E187">
-        <f>B187/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3340,7 +3340,7 @@
         <v>4.9671714131166382</v>
       </c>
       <c r="E188">
-        <f>B188/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
         <v>7.1973044043997003</v>
       </c>
       <c r="E189">
-        <f>B189/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3370,7 +3370,7 @@
         <v>6.623351545618668</v>
       </c>
       <c r="E190">
-        <f>B190/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
         <v>8.6240398519967538</v>
       </c>
       <c r="E191">
-        <f>B191/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3400,7 +3400,7 @@
         <v>5.3164838524355549</v>
       </c>
       <c r="E192">
-        <f>B192/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
         <v>4.3298054534201187</v>
       </c>
       <c r="E193">
-        <f>B193/180*12*6</f>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
@@ -3430,7 +3430,7 @@
         <v>7.6753298164433472</v>
       </c>
       <c r="E194">
-        <f>B194/180*12*6</f>
+        <f t="shared" ref="E194:E201" si="6">B194/180*12*6</f>
         <v>4</v>
       </c>
     </row>
@@ -3445,7 +3445,7 @@
         <v>7.8608901477162334</v>
       </c>
       <c r="E195">
-        <f>B195/180*12*6</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3460,7 +3460,7 @@
         <v>8.5390792625176211</v>
       </c>
       <c r="E196">
-        <f>B196/180*12*6</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
         <v>8.6598603459841854</v>
       </c>
       <c r="E197">
-        <f>B197/180*12*6</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3490,7 +3490,7 @@
         <v>4.0697578648779853</v>
       </c>
       <c r="E198">
-        <f>B198/180*12*6</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3505,7 +3505,7 @@
         <v>5.1718104306071027</v>
       </c>
       <c r="E199">
-        <f>B199/180*12*6</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3520,7 +3520,7 @@
         <v>7.0838917850082881</v>
       </c>
       <c r="E200">
-        <f>B200/180*12*6</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3535,7 +3535,7 @@
         <v>8.7450816034380825</v>
       </c>
       <c r="E201">
-        <f>B201/180*12*6</f>
+        <f t="shared" si="6"/>
         <v>4</v>
       </c>
     </row>
@@ -3549,19 +3549,19 @@
   <dimension ref="A1:M201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1048576"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="17.109375" customWidth="1"/>
-    <col min="3" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6328125" customWidth="1"/>
+    <col min="2" max="2" width="17.08984375" customWidth="1"/>
+    <col min="3" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="15.90625" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -3656,23 +3656,23 @@
         <v>1.0524776465051207E-4</v>
       </c>
       <c r="H3">
-        <f>A3*2*12</f>
+        <f t="shared" ref="H2:H33" si="0">A3*2*12</f>
         <v>0.58432054555664603</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="0">B3*3*12</f>
+        <f t="shared" ref="I3:I66" si="1">B3*3*12</f>
         <v>0.87303389939936804</v>
       </c>
       <c r="K3">
-        <f>H3/4</f>
+        <f t="shared" ref="K2:K33" si="2">H3/4</f>
         <v>0.14608013638916151</v>
       </c>
       <c r="L3">
-        <f>I3/4</f>
+        <f t="shared" ref="L2:L33" si="3">I3/4</f>
         <v>0.21825847484984201</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="1">SUM(K3:L3)</f>
+        <f t="shared" ref="M3:M66" si="4">SUM(K3:L3)</f>
         <v>0.36433861123900352</v>
       </c>
     </row>
@@ -3696,23 +3696,23 @@
         <v>6.22145720230963E-5</v>
       </c>
       <c r="H4">
-        <f>A4*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.13973966654433551</v>
       </c>
       <c r="I4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20732685420500269</v>
       </c>
       <c r="K4">
-        <f>H4/4</f>
+        <f t="shared" si="2"/>
         <v>3.4934916636083876E-2</v>
       </c>
       <c r="L4">
-        <f>I4/4</f>
+        <f t="shared" si="3"/>
         <v>5.1831713551250672E-2</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.6766630187334548E-2</v>
       </c>
     </row>
@@ -3736,23 +3736,23 @@
         <v>1.3035459699760983E-3</v>
       </c>
       <c r="H5">
-        <f>A5*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.29648027956283157</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.39776945783522111</v>
       </c>
       <c r="K5">
-        <f>H5/4</f>
+        <f t="shared" si="2"/>
         <v>7.4120069890707893E-2</v>
       </c>
       <c r="L5">
-        <f>I5/4</f>
+        <f t="shared" si="3"/>
         <v>9.9442364458805277E-2</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.17356243434951318</v>
       </c>
     </row>
@@ -3776,23 +3776,23 @@
         <v>2.3559209314515705E-4</v>
       </c>
       <c r="H6">
-        <f>A6*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.17100725198606398</v>
       </c>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24799706606708222</v>
       </c>
       <c r="K6">
-        <f>H6/4</f>
+        <f t="shared" si="2"/>
         <v>4.2751812996515995E-2</v>
       </c>
       <c r="L6">
-        <f>I6/4</f>
+        <f t="shared" si="3"/>
         <v>6.1999266516770554E-2</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.10475107951328655</v>
       </c>
     </row>
@@ -3816,23 +3816,23 @@
         <v>1.2299562119397054E-4</v>
       </c>
       <c r="H7">
-        <f>A7*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.13100999379622758</v>
       </c>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19204839487303241</v>
       </c>
       <c r="K7">
-        <f>H7/4</f>
+        <f t="shared" si="2"/>
         <v>3.2752498449056894E-2</v>
       </c>
       <c r="L7">
-        <f>I7/4</f>
+        <f t="shared" si="3"/>
         <v>4.8012098718258102E-2</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.0764597167314989E-2</v>
       </c>
     </row>
@@ -3856,23 +3856,23 @@
         <v>3.5619392220717443E-4</v>
       </c>
       <c r="H8">
-        <f>A8*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.19116112248696554</v>
       </c>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.27388862673068615</v>
       </c>
       <c r="K8">
-        <f>H8/4</f>
+        <f t="shared" si="2"/>
         <v>4.7790280621741385E-2</v>
       </c>
       <c r="L8">
-        <f>I8/4</f>
+        <f t="shared" si="3"/>
         <v>6.8472156682671537E-2</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11626243730441292</v>
       </c>
     </row>
@@ -3896,23 +3896,23 @@
         <v>2.1439219776208623E-3</v>
       </c>
       <c r="H9">
-        <f>A9*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.35844041744535593</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.46044732818461132</v>
       </c>
       <c r="K9">
-        <f>H9/4</f>
+        <f t="shared" si="2"/>
         <v>8.9610104361338982E-2</v>
       </c>
       <c r="L9">
-        <f>I9/4</f>
+        <f t="shared" si="3"/>
         <v>0.11511183204615283</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.20472193640749181</v>
       </c>
     </row>
@@ -3936,23 +3936,23 @@
         <v>3.8881230192592963E-3</v>
       </c>
       <c r="H10">
-        <f>A10*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.45186964503447646</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.53779321063310959</v>
       </c>
       <c r="K10">
-        <f>H10/4</f>
+        <f t="shared" si="2"/>
         <v>0.11296741125861912</v>
       </c>
       <c r="L10">
-        <f>I10/4</f>
+        <f t="shared" si="3"/>
         <v>0.1344483026582774</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.24741571391689651</v>
       </c>
     </row>
@@ -3976,23 +3976,23 @@
         <v>1.127207421036166E-5</v>
       </c>
       <c r="H11">
-        <f>A11*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.60617258781435868</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90883711964518032</v>
       </c>
       <c r="K11">
-        <f>H11/4</f>
+        <f t="shared" si="2"/>
         <v>0.15154314695358967</v>
       </c>
       <c r="L11">
-        <f>I11/4</f>
+        <f t="shared" si="3"/>
         <v>0.22720927991129508</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.37875242686488475</v>
       </c>
     </row>
@@ -4016,23 +4016,23 @@
         <v>5.0028477984440231E-3</v>
       </c>
       <c r="H12">
-        <f>A12*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.49823287976585418</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56720297823296129</v>
       </c>
       <c r="K12">
-        <f>H12/4</f>
+        <f t="shared" si="2"/>
         <v>0.12455821994146354</v>
       </c>
       <c r="L12">
-        <f>I12/4</f>
+        <f t="shared" si="3"/>
         <v>0.14180074455824032</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.26635896449970387</v>
       </c>
     </row>
@@ -4056,23 +4056,23 @@
         <v>7.9153417566218818E-5</v>
       </c>
       <c r="H13">
-        <f>A13*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.58620249882701425</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87668032689206332</v>
       </c>
       <c r="K13">
-        <f>H13/4</f>
+        <f t="shared" si="2"/>
         <v>0.14655062470675356</v>
       </c>
       <c r="L13">
-        <f>I13/4</f>
+        <f t="shared" si="3"/>
         <v>0.21917008172301583</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.36572070642976939</v>
       </c>
     </row>
@@ -4096,23 +4096,23 @@
         <v>4.3196298258099485E-4</v>
       </c>
       <c r="H14">
-        <f>A14*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.20292804371693454</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28880754406032694</v>
       </c>
       <c r="K14">
-        <f>H14/4</f>
+        <f t="shared" si="2"/>
         <v>5.0732010929233635E-2</v>
       </c>
       <c r="L14">
-        <f>I14/4</f>
+        <f t="shared" si="3"/>
         <v>7.2201886015081734E-2</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.12293389694431536</v>
       </c>
     </row>
@@ -4136,23 +4136,23 @@
         <v>3.1146528129560361E-3</v>
       </c>
       <c r="H15">
-        <f>A15*2*12</f>
+        <f t="shared" si="0"/>
         <v>1.0069195335303656</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3985579205177767</v>
       </c>
       <c r="K15">
-        <f>H15/4</f>
+        <f t="shared" si="2"/>
         <v>0.25172988338259139</v>
       </c>
       <c r="L15">
-        <f>I15/4</f>
+        <f t="shared" si="3"/>
         <v>0.34963948012944418</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.60136936351203563</v>
       </c>
     </row>
@@ -4176,23 +4176,23 @@
         <v>8.8651763072292923E-5</v>
       </c>
       <c r="H16">
-        <f>A16*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.14696616674027105</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21721393637023598</v>
       </c>
       <c r="K16">
-        <f>H16/4</f>
+        <f t="shared" si="2"/>
         <v>3.6741541685067762E-2</v>
       </c>
       <c r="L16">
-        <f>I16/4</f>
+        <f t="shared" si="3"/>
         <v>5.4303484092558994E-2</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.1045025777626756E-2</v>
       </c>
     </row>
@@ -4216,23 +4216,23 @@
         <v>7.3669766154965427E-5</v>
       </c>
       <c r="H17">
-        <f>A17*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.58571757153511639</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87611598792704748</v>
       </c>
       <c r="K17">
-        <f>H17/4</f>
+        <f t="shared" si="2"/>
         <v>0.1464293928837791</v>
       </c>
       <c r="L17">
-        <f>I17/4</f>
+        <f t="shared" si="3"/>
         <v>0.21902899698176187</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.36545838986554097</v>
       </c>
     </row>
@@ -4256,23 +4256,23 @@
         <v>4.8998467568288576E-3</v>
       </c>
       <c r="H18">
-        <f>A18*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.49245257080833216</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.56224048499155699</v>
       </c>
       <c r="K18">
-        <f>H18/4</f>
+        <f t="shared" si="2"/>
         <v>0.12311314270208304</v>
       </c>
       <c r="L18">
-        <f>I18/4</f>
+        <f t="shared" si="3"/>
         <v>0.14056012124788925</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.26367326394997226</v>
       </c>
     </row>
@@ -4296,23 +4296,23 @@
         <v>9.828424403642319E-6</v>
       </c>
       <c r="H19">
-        <f>A19*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.6222134226148921</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93294897654897257</v>
       </c>
       <c r="K19">
-        <f>H19/4</f>
+        <f t="shared" si="2"/>
         <v>0.15555335565372302</v>
       </c>
       <c r="L19">
-        <f>I19/4</f>
+        <f t="shared" si="3"/>
         <v>0.23323724413724314</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.3887905997909662</v>
       </c>
     </row>
@@ -4336,23 +4336,23 @@
         <v>2.1102336923963649E-4</v>
       </c>
       <c r="H20">
-        <f>A20*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.16874997535944053</v>
       </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24548184983363408</v>
       </c>
       <c r="K20">
-        <f>H20/4</f>
+        <f t="shared" si="2"/>
         <v>4.2187493839860132E-2</v>
       </c>
       <c r="L20">
-        <f>I20/4</f>
+        <f t="shared" si="3"/>
         <v>6.137046245840852E-2</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.10355795629826865</v>
       </c>
     </row>
@@ -4376,23 +4376,23 @@
         <v>4.0658589960874849E-4</v>
       </c>
       <c r="H21">
-        <f>A21*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.1994713501374536</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28454272960280624</v>
       </c>
       <c r="K21">
-        <f>H21/4</f>
+        <f t="shared" si="2"/>
         <v>4.9867837534363399E-2</v>
       </c>
       <c r="L21">
-        <f>I21/4</f>
+        <f t="shared" si="3"/>
         <v>7.1135682400701561E-2</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.12100351993506496</v>
       </c>
     </row>
@@ -4416,23 +4416,23 @@
         <v>1.7085187585772778E-4</v>
       </c>
       <c r="H22">
-        <f>A22*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.62852306529900015</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.93731685316072166</v>
       </c>
       <c r="K22">
-        <f>H22/4</f>
+        <f t="shared" si="2"/>
         <v>0.15713076632475004</v>
       </c>
       <c r="L22">
-        <f>I22/4</f>
+        <f t="shared" si="3"/>
         <v>0.23432921329018042</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.39145997961493045</v>
       </c>
     </row>
@@ -4456,23 +4456,23 @@
         <v>4.1906947923134992E-2</v>
       </c>
       <c r="H23">
-        <f>A23*2*12</f>
+        <f t="shared" si="0"/>
         <v>1.0061352239096975</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0001131071100723E-5</v>
       </c>
       <c r="K23">
-        <f>H23/4</f>
+        <f t="shared" si="2"/>
         <v>0.25153380597742436</v>
       </c>
       <c r="L23">
-        <f>I23/4</f>
+        <f t="shared" si="3"/>
         <v>7.5002827677751807E-6</v>
       </c>
       <c r="M23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.25154130626019217</v>
       </c>
     </row>
@@ -4496,23 +4496,23 @@
         <v>1.4810888575283324E-3</v>
       </c>
       <c r="H24">
-        <f>A24*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.31424404138454798</v>
       </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.41801944783820477</v>
       </c>
       <c r="K24">
-        <f>H24/4</f>
+        <f t="shared" si="2"/>
         <v>7.8561010346136995E-2</v>
       </c>
       <c r="L24">
-        <f>I24/4</f>
+        <f t="shared" si="3"/>
         <v>0.10450486195955119</v>
       </c>
       <c r="M24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.18306587230568819</v>
       </c>
     </row>
@@ -4536,23 +4536,23 @@
         <v>8.1206516415012784E-5</v>
       </c>
       <c r="H25">
-        <f>A25*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.58239139668689888</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87090824455976956</v>
       </c>
       <c r="K25">
-        <f>H25/4</f>
+        <f t="shared" si="2"/>
         <v>0.14559784917172472</v>
       </c>
       <c r="L25">
-        <f>I25/4</f>
+        <f t="shared" si="3"/>
         <v>0.21772706113994239</v>
       </c>
       <c r="M25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.36332491031166714</v>
       </c>
     </row>
@@ -4576,23 +4576,23 @@
         <v>3.1085850874293117E-3</v>
       </c>
       <c r="H26">
-        <f>A26*2*12</f>
+        <f t="shared" si="0"/>
         <v>1.0071195417177954</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3990142844126052</v>
       </c>
       <c r="K26">
-        <f>H26/4</f>
+        <f t="shared" si="2"/>
         <v>0.25177988542944885</v>
       </c>
       <c r="L26">
-        <f>I26/4</f>
+        <f t="shared" si="3"/>
         <v>0.34975357110315131</v>
       </c>
       <c r="M26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.60153345653260015</v>
       </c>
     </row>
@@ -4616,23 +4616,23 @@
         <v>2.7522070420679104E-3</v>
       </c>
       <c r="H27">
-        <f>A27*2*12</f>
+        <f t="shared" si="0"/>
         <v>1.0051447275633678</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.410871007925262</v>
       </c>
       <c r="K27">
-        <f>H27/4</f>
+        <f t="shared" si="2"/>
         <v>0.25128618189084195</v>
       </c>
       <c r="L27">
-        <f>I27/4</f>
+        <f t="shared" si="3"/>
         <v>0.3527177519813155</v>
       </c>
       <c r="M27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.60400393387215745</v>
       </c>
     </row>
@@ -4656,23 +4656,23 @@
         <v>1.4504980154020496E-4</v>
       </c>
       <c r="H28">
-        <f>A28*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.14558574639502353</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21311524654326774</v>
       </c>
       <c r="K28">
-        <f>H28/4</f>
+        <f t="shared" si="2"/>
         <v>3.6396436598755882E-2</v>
       </c>
       <c r="L28">
-        <f>I28/4</f>
+        <f t="shared" si="3"/>
         <v>5.3278811635816936E-2</v>
       </c>
       <c r="M28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.9675248234572819E-2</v>
       </c>
     </row>
@@ -4696,23 +4696,23 @@
         <v>8.4699463689167842E-5</v>
       </c>
       <c r="H29">
-        <f>A29*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.14889086052328998</v>
       </c>
       <c r="I29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2202447694098042</v>
       </c>
       <c r="K29">
-        <f>H29/4</f>
+        <f t="shared" si="2"/>
         <v>3.7222715130822495E-2</v>
       </c>
       <c r="L29">
-        <f>I29/4</f>
+        <f t="shared" si="3"/>
         <v>5.5061192352451049E-2</v>
       </c>
       <c r="M29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.2283907483273545E-2</v>
       </c>
     </row>
@@ -4736,23 +4736,23 @@
         <v>2.9663924143837034E-4</v>
       </c>
       <c r="H30">
-        <f>A30*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.18095877909377026</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.26072534229815714</v>
       </c>
       <c r="K30">
-        <f>H30/4</f>
+        <f t="shared" si="2"/>
         <v>4.5239694773442564E-2</v>
       </c>
       <c r="L30">
-        <f>I30/4</f>
+        <f t="shared" si="3"/>
         <v>6.5181335574539284E-2</v>
       </c>
       <c r="M30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.11042103034798184</v>
       </c>
     </row>
@@ -4776,23 +4776,23 @@
         <v>2.6691247617453111E-3</v>
       </c>
       <c r="H31">
-        <f>A31*2*12</f>
+        <f t="shared" si="0"/>
         <v>1.0069084199369955</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4147441744266818</v>
       </c>
       <c r="K31">
-        <f>H31/4</f>
+        <f t="shared" si="2"/>
         <v>0.25172710498424888</v>
       </c>
       <c r="L31">
-        <f>I31/4</f>
+        <f t="shared" si="3"/>
         <v>0.35368604360667044</v>
       </c>
       <c r="M31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.60541314859091933</v>
       </c>
     </row>
@@ -4816,23 +4816,23 @@
         <v>1.471869585510204E-4</v>
       </c>
       <c r="H32">
-        <f>A32*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.15176476181779794</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22231081588586965</v>
       </c>
       <c r="K32">
-        <f>H32/4</f>
+        <f t="shared" si="2"/>
         <v>3.7941190454449485E-2</v>
       </c>
       <c r="L32">
-        <f>I32/4</f>
+        <f t="shared" si="3"/>
         <v>5.5577703971467413E-2</v>
       </c>
       <c r="M32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.3518894425916904E-2</v>
       </c>
     </row>
@@ -4856,23 +4856,23 @@
         <v>5.1121068446454811E-3</v>
       </c>
       <c r="H33">
-        <f>A33*2*12</f>
+        <f t="shared" si="0"/>
         <v>0.50306500797145337</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57051716486793425</v>
       </c>
       <c r="K33">
-        <f>H33/4</f>
+        <f t="shared" si="2"/>
         <v>0.12576625199286334</v>
       </c>
       <c r="L33">
-        <f>I33/4</f>
+        <f t="shared" si="3"/>
         <v>0.14262929121698356</v>
       </c>
       <c r="M33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.26839554320984693</v>
       </c>
     </row>
@@ -4896,23 +4896,23 @@
         <v>4.1841993864022611E-2</v>
       </c>
       <c r="H34">
-        <f>A34*2*12</f>
+        <f t="shared" ref="H34:H65" si="5">A34*2*12</f>
         <v>1.0045932658636156</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9530481423387283E-5</v>
       </c>
       <c r="K34">
-        <f>H34/4</f>
+        <f t="shared" ref="K34:K65" si="6">H34/4</f>
         <v>0.25114831646590391</v>
       </c>
       <c r="L34">
-        <f>I34/4</f>
+        <f t="shared" ref="L34:L65" si="7">I34/4</f>
         <v>7.3826203558468209E-6</v>
       </c>
       <c r="M34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.25115569908625973</v>
       </c>
     </row>
@@ -4936,23 +4936,23 @@
         <v>1.2400588109941787E-5</v>
       </c>
       <c r="H35">
-        <f>A35*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.60365931901570413</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90502662006703916</v>
       </c>
       <c r="K35">
-        <f>H35/4</f>
+        <f t="shared" si="6"/>
         <v>0.15091482975392603</v>
       </c>
       <c r="L35">
-        <f>I35/4</f>
+        <f t="shared" si="7"/>
         <v>0.22625665501675979</v>
       </c>
       <c r="M35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.37717148477068585</v>
       </c>
     </row>
@@ -4976,23 +4976,23 @@
         <v>8.1937625813813922E-5</v>
       </c>
       <c r="H36">
-        <f>A36*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.58956223780308215</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8816371227717944</v>
       </c>
       <c r="K36">
-        <f>H36/4</f>
+        <f t="shared" si="6"/>
         <v>0.14739055945077054</v>
       </c>
       <c r="L36">
-        <f>I36/4</f>
+        <f t="shared" si="7"/>
         <v>0.2204092806929486</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.36779984014371914</v>
       </c>
     </row>
@@ -5016,23 +5016,23 @@
         <v>1.5172668000120689E-3</v>
       </c>
       <c r="H37">
-        <f>A37*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.31390430671617353</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4162067637130053</v>
       </c>
       <c r="K37">
-        <f>H37/4</f>
+        <f t="shared" si="6"/>
         <v>7.8476076679043383E-2</v>
       </c>
       <c r="L37">
-        <f>I37/4</f>
+        <f t="shared" si="7"/>
         <v>0.10405169092825133</v>
       </c>
       <c r="M37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.18252776760729472</v>
       </c>
     </row>
@@ -5056,23 +5056,23 @@
         <v>7.9923341510984084E-5</v>
       </c>
       <c r="H38">
-        <f>A38*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.58741314914473508</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87847163510724946</v>
       </c>
       <c r="K38">
-        <f>H38/4</f>
+        <f t="shared" si="6"/>
         <v>0.14685328728618377</v>
       </c>
       <c r="L38">
-        <f>I38/4</f>
+        <f t="shared" si="7"/>
         <v>0.21961790877681237</v>
       </c>
       <c r="M38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.36647119606299616</v>
       </c>
     </row>
@@ -5096,23 +5096,23 @@
         <v>3.0768421222023061E-4</v>
       </c>
       <c r="H39">
-        <f>A39*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.71710301449635461</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0656326443728816</v>
       </c>
       <c r="K39">
-        <f>H39/4</f>
+        <f t="shared" si="6"/>
         <v>0.17927575362408865</v>
       </c>
       <c r="L39">
-        <f>I39/4</f>
+        <f t="shared" si="7"/>
         <v>0.26640816109322041</v>
       </c>
       <c r="M39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.44568391471730906</v>
       </c>
     </row>
@@ -5136,23 +5136,23 @@
         <v>8.9221199668254524E-5</v>
       </c>
       <c r="H40">
-        <f>A40*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.14534618563027046</v>
       </c>
       <c r="I40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2147631050224045</v>
       </c>
       <c r="K40">
-        <f>H40/4</f>
+        <f t="shared" si="6"/>
         <v>3.6336546407567616E-2</v>
       </c>
       <c r="L40">
-        <f>I40/4</f>
+        <f t="shared" si="7"/>
         <v>5.3690776255601126E-2</v>
       </c>
       <c r="M40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.0027322663168735E-2</v>
       </c>
     </row>
@@ -5176,23 +5176,23 @@
         <v>1.0273198958130449E-4</v>
       </c>
       <c r="H41">
-        <f>A41*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.64172488262344618</v>
       </c>
       <c r="I41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95925022094901813</v>
       </c>
       <c r="K41">
-        <f>H41/4</f>
+        <f t="shared" si="6"/>
         <v>0.16043122065586155</v>
       </c>
       <c r="L41">
-        <f>I41/4</f>
+        <f t="shared" si="7"/>
         <v>0.23981255523725453</v>
       </c>
       <c r="M41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.4002437758931161</v>
       </c>
     </row>
@@ -5216,23 +5216,23 @@
         <v>4.1796862003343822E-2</v>
       </c>
       <c r="H42">
-        <f>A42*2*12</f>
+        <f t="shared" si="5"/>
         <v>1.0035076118097614</v>
       </c>
       <c r="I42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.9964395618915096E-5</v>
       </c>
       <c r="K42">
-        <f>H42/4</f>
+        <f t="shared" si="6"/>
         <v>0.25087690295244036</v>
       </c>
       <c r="L42">
-        <f>I42/4</f>
+        <f t="shared" si="7"/>
         <v>7.491098904728774E-6</v>
       </c>
       <c r="M42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.25088439405134511</v>
       </c>
     </row>
@@ -5256,23 +5256,23 @@
         <v>1.0062422614620868E-4</v>
       </c>
       <c r="H43">
-        <f>A43*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.61553497649986111</v>
       </c>
       <c r="I43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92003856174697485</v>
       </c>
       <c r="K43">
-        <f>H43/4</f>
+        <f t="shared" si="6"/>
         <v>0.15388374412496528</v>
       </c>
       <c r="L43">
-        <f>I43/4</f>
+        <f t="shared" si="7"/>
         <v>0.23000964043674371</v>
       </c>
       <c r="M43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.38389338456170896</v>
       </c>
     </row>
@@ -5296,23 +5296,23 @@
         <v>1.0036809740287076E-3</v>
       </c>
       <c r="H44">
-        <f>A44*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.26907701458331118</v>
       </c>
       <c r="I44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.36746206262839931</v>
       </c>
       <c r="K44">
-        <f>H44/4</f>
+        <f t="shared" si="6"/>
         <v>6.7269253645827795E-2</v>
       </c>
       <c r="L44">
-        <f>I44/4</f>
+        <f t="shared" si="7"/>
         <v>9.1865515657099828E-2</v>
       </c>
       <c r="M44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.15913476930292764</v>
       </c>
     </row>
@@ -5336,23 +5336,23 @@
         <v>1.4703163947469937E-4</v>
       </c>
       <c r="H45">
-        <f>A45*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.58504261719619355</v>
       </c>
       <c r="I45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87283266515653446</v>
       </c>
       <c r="K45">
-        <f>H45/4</f>
+        <f t="shared" si="6"/>
         <v>0.14626065429904839</v>
       </c>
       <c r="L45">
-        <f>I45/4</f>
+        <f t="shared" si="7"/>
         <v>0.21820816628913361</v>
       </c>
       <c r="M45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.36446882058818197</v>
       </c>
     </row>
@@ -5376,23 +5376,23 @@
         <v>1.7451516815636029E-4</v>
       </c>
       <c r="H46">
-        <f>A46*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.15927893154653866</v>
       </c>
       <c r="I46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23259716053419732</v>
       </c>
       <c r="K46">
-        <f>H46/4</f>
+        <f t="shared" si="6"/>
         <v>3.9819732886634665E-2</v>
       </c>
       <c r="L46">
-        <f>I46/4</f>
+        <f t="shared" si="7"/>
         <v>5.8149290133549331E-2</v>
       </c>
       <c r="M46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.7969023020183996E-2</v>
       </c>
     </row>
@@ -5416,23 +5416,23 @@
         <v>6.8733709326462633E-3</v>
       </c>
       <c r="H47">
-        <f>A47*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.56258592529445495</v>
       </c>
       <c r="I47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.59636678605280535</v>
       </c>
       <c r="K47">
-        <f>H47/4</f>
+        <f t="shared" si="6"/>
         <v>0.14064648132361374</v>
       </c>
       <c r="L47">
-        <f>I47/4</f>
+        <f t="shared" si="7"/>
         <v>0.14909169651320134</v>
       </c>
       <c r="M47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.2897381778368151</v>
       </c>
     </row>
@@ -5456,23 +5456,23 @@
         <v>4.2072135622926769E-2</v>
       </c>
       <c r="H48">
-        <f>A48*2*12</f>
+        <f t="shared" si="5"/>
         <v>1.0101692068573187</v>
       </c>
       <c r="I48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2948499325045432E-4</v>
       </c>
       <c r="K48">
-        <f>H48/4</f>
+        <f t="shared" si="6"/>
         <v>0.25254230171432968</v>
       </c>
       <c r="L48">
-        <f>I48/4</f>
+        <f t="shared" si="7"/>
         <v>3.237124831261358E-5</v>
       </c>
       <c r="M48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.2525746729626423</v>
       </c>
     </row>
@@ -5496,23 +5496,23 @@
         <v>1.1797480864986435E-3</v>
       </c>
       <c r="H49">
-        <f>A49*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.28690808203173479</v>
       </c>
       <c r="I49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38787212732436605</v>
       </c>
       <c r="K49">
-        <f>H49/4</f>
+        <f t="shared" si="6"/>
         <v>7.1727020507933698E-2</v>
       </c>
       <c r="L49">
-        <f>I49/4</f>
+        <f t="shared" si="7"/>
         <v>9.6968031831091511E-2</v>
       </c>
       <c r="M49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.16869505233902521</v>
       </c>
     </row>
@@ -5536,23 +5536,23 @@
         <v>1.0942379045308769E-3</v>
       </c>
       <c r="H50">
-        <f>A50*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.27734438183742172</v>
       </c>
       <c r="I50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.37660111434923454</v>
       </c>
       <c r="K50">
-        <f>H50/4</f>
+        <f t="shared" si="6"/>
         <v>6.9336095459355429E-2</v>
       </c>
       <c r="L50">
-        <f>I50/4</f>
+        <f t="shared" si="7"/>
         <v>9.4150278587308636E-2</v>
       </c>
       <c r="M50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.16348637404666405</v>
       </c>
     </row>
@@ -5576,23 +5576,23 @@
         <v>1.8727689567137981E-4</v>
       </c>
       <c r="H51">
-        <f>A51*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.16452500937813808</v>
       </c>
       <c r="I51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2400097225208806</v>
       </c>
       <c r="K51">
-        <f>H51/4</f>
+        <f t="shared" si="6"/>
         <v>4.1131252344534519E-2</v>
       </c>
       <c r="L51">
-        <f>I51/4</f>
+        <f t="shared" si="7"/>
         <v>6.0002430630220149E-2</v>
       </c>
       <c r="M51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.10113368297475467</v>
       </c>
     </row>
@@ -5616,23 +5616,23 @@
         <v>5.8336128868085486E-5</v>
       </c>
       <c r="H52">
-        <f>A52*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.14120335781681789</v>
       </c>
       <c r="I52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20966284962999127</v>
       </c>
       <c r="K52">
-        <f>H52/4</f>
+        <f t="shared" si="6"/>
         <v>3.5300839454204473E-2</v>
       </c>
       <c r="L52">
-        <f>I52/4</f>
+        <f t="shared" si="7"/>
         <v>5.2415712407497816E-2</v>
       </c>
       <c r="M52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.7716551861702297E-2</v>
       </c>
     </row>
@@ -5656,23 +5656,23 @@
         <v>7.6592557725170573E-5</v>
       </c>
       <c r="H53">
-        <f>A53*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.58368999570513869</v>
       </c>
       <c r="I53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87298763602507967</v>
       </c>
       <c r="K53">
-        <f>H53/4</f>
+        <f t="shared" si="6"/>
         <v>0.14592249892628467</v>
       </c>
       <c r="L53">
-        <f>I53/4</f>
+        <f t="shared" si="7"/>
         <v>0.21824690900626992</v>
       </c>
       <c r="M53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.36416940793255459</v>
       </c>
     </row>
@@ -5696,23 +5696,23 @@
         <v>4.6006350513779078E-4</v>
       </c>
       <c r="H54">
-        <f>A54*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.20742786439606772</v>
       </c>
       <c r="I54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.29455362444731081</v>
       </c>
       <c r="K54">
-        <f>H54/4</f>
+        <f t="shared" si="6"/>
         <v>5.1856966099016931E-2</v>
       </c>
       <c r="L54">
-        <f>I54/4</f>
+        <f t="shared" si="7"/>
         <v>7.3638406111827703E-2</v>
       </c>
       <c r="M54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.12549537221084464</v>
       </c>
     </row>
@@ -5736,23 +5736,23 @@
         <v>8.4310939500279727E-4</v>
       </c>
       <c r="H55">
-        <f>A55*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.22321980261371055</v>
       </c>
       <c r="I55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30446262332111562</v>
       </c>
       <c r="K55">
-        <f>H55/4</f>
+        <f t="shared" si="6"/>
         <v>5.5804950653427637E-2</v>
       </c>
       <c r="L55">
-        <f>I55/4</f>
+        <f t="shared" si="7"/>
         <v>7.6115655830278905E-2</v>
       </c>
       <c r="M55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.13192060648370654</v>
       </c>
     </row>
@@ -5776,23 +5776,23 @@
         <v>5.1717827057158345E-3</v>
       </c>
       <c r="H56">
-        <f>A56*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.60546082737920048</v>
       </c>
       <c r="I56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.72182174399347643</v>
       </c>
       <c r="K56">
-        <f>H56/4</f>
+        <f t="shared" si="6"/>
         <v>0.15136520684480012</v>
       </c>
       <c r="L56">
-        <f>I56/4</f>
+        <f t="shared" si="7"/>
         <v>0.18045543599836911</v>
       </c>
       <c r="M56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.33182064284316926</v>
       </c>
     </row>
@@ -5816,23 +5816,23 @@
         <v>8.5354290254805552E-5</v>
       </c>
       <c r="H57">
-        <f>A57*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.15387295581246185</v>
       </c>
       <c r="I57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.22769541440063557</v>
       </c>
       <c r="K57">
-        <f>H57/4</f>
+        <f t="shared" si="6"/>
         <v>3.8468238953115463E-2</v>
       </c>
       <c r="L57">
-        <f>I57/4</f>
+        <f t="shared" si="7"/>
         <v>5.6923853600158891E-2</v>
       </c>
       <c r="M57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.5392092553274355E-2</v>
       </c>
     </row>
@@ -5856,23 +5856,23 @@
         <v>8.8153409092824365E-6</v>
       </c>
       <c r="H58">
-        <f>A58*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.64138104742945812</v>
       </c>
       <c r="I58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96173737794181136</v>
       </c>
       <c r="K58">
-        <f>H58/4</f>
+        <f t="shared" si="6"/>
         <v>0.16034526185736453</v>
       </c>
       <c r="L58">
-        <f>I58/4</f>
+        <f t="shared" si="7"/>
         <v>0.24043434448545284</v>
       </c>
       <c r="M58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.4007796063428174</v>
       </c>
     </row>
@@ -5896,23 +5896,23 @@
         <v>2.2698378744902086E-4</v>
       </c>
       <c r="H59">
-        <f>A59*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.17196975243148488</v>
       </c>
       <c r="I59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.24974639528231105</v>
       </c>
       <c r="K59">
-        <f>H59/4</f>
+        <f t="shared" si="6"/>
         <v>4.299243810787122E-2</v>
       </c>
       <c r="L59">
-        <f>I59/4</f>
+        <f t="shared" si="7"/>
         <v>6.2436598820577761E-2</v>
       </c>
       <c r="M59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.10542903692844899</v>
       </c>
     </row>
@@ -5936,23 +5936,23 @@
         <v>1.0261105575361395E-5</v>
       </c>
       <c r="H60">
-        <f>A60*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.64399222883514262</v>
       </c>
       <c r="I60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.96561051178665103</v>
       </c>
       <c r="K60">
-        <f>H60/4</f>
+        <f t="shared" si="6"/>
         <v>0.16099805720878566</v>
       </c>
       <c r="L60">
-        <f>I60/4</f>
+        <f t="shared" si="7"/>
         <v>0.24140262794666276</v>
       </c>
       <c r="M60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.40240068515544841</v>
       </c>
     </row>
@@ -5976,23 +5976,23 @@
         <v>8.045775362053061E-5</v>
       </c>
       <c r="H61">
-        <f>A61*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.58422402528572859</v>
       </c>
       <c r="I61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.87368803336742484</v>
       </c>
       <c r="K61">
-        <f>H61/4</f>
+        <f t="shared" si="6"/>
         <v>0.14605600632143215</v>
       </c>
       <c r="L61">
-        <f>I61/4</f>
+        <f t="shared" si="7"/>
         <v>0.21842200834185621</v>
       </c>
       <c r="M61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.36447801466328833</v>
       </c>
     </row>
@@ -6016,23 +6016,23 @@
         <v>1.66107394404398E-4</v>
       </c>
       <c r="H62">
-        <f>A62*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.1431957252758147</v>
       </c>
       <c r="I62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.20877511226572432</v>
       </c>
       <c r="K62">
-        <f>H62/4</f>
+        <f t="shared" si="6"/>
         <v>3.5798931318953675E-2</v>
       </c>
       <c r="L62">
-        <f>I62/4</f>
+        <f t="shared" si="7"/>
         <v>5.2193778066431079E-2</v>
       </c>
       <c r="M62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.7992709385384754E-2</v>
       </c>
     </row>
@@ -6056,23 +6056,23 @@
         <v>4.7255572840582257E-3</v>
       </c>
       <c r="H63">
-        <f>A63*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.48595102798368045</v>
       </c>
       <c r="I63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55876357307717384</v>
       </c>
       <c r="K63">
-        <f>H63/4</f>
+        <f t="shared" si="6"/>
         <v>0.12148775699592011</v>
       </c>
       <c r="L63">
-        <f>I63/4</f>
+        <f t="shared" si="7"/>
         <v>0.13969089326929346</v>
       </c>
       <c r="M63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.26117865026521359</v>
       </c>
     </row>
@@ -6096,23 +6096,23 @@
         <v>8.1442974497120108E-5</v>
       </c>
       <c r="H64">
-        <f>A64*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.5926112524254139</v>
       </c>
       <c r="I64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88622479200761384</v>
       </c>
       <c r="K64">
-        <f>H64/4</f>
+        <f t="shared" si="6"/>
         <v>0.14815281310635348</v>
       </c>
       <c r="L64">
-        <f>I64/4</f>
+        <f t="shared" si="7"/>
         <v>0.22155619800190346</v>
       </c>
       <c r="M64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.36970901110825694</v>
       </c>
     </row>
@@ -6136,23 +6136,23 @@
         <v>4.7295146918281891E-3</v>
       </c>
       <c r="H65">
-        <f>A65*2*12</f>
+        <f t="shared" si="5"/>
         <v>0.48629811997770173</v>
       </c>
       <c r="I65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55914301044703518</v>
       </c>
       <c r="K65">
-        <f>H65/4</f>
+        <f t="shared" si="6"/>
         <v>0.12157452999442543</v>
       </c>
       <c r="L65">
-        <f>I65/4</f>
+        <f t="shared" si="7"/>
         <v>0.1397857526117588</v>
       </c>
       <c r="M65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.26136028260618421</v>
       </c>
     </row>
@@ -6176,23 +6176,23 @@
         <v>8.0142408350480714E-5</v>
       </c>
       <c r="H66">
-        <f>A66*2*12</f>
+        <f t="shared" ref="H66:H97" si="8">A66*2*12</f>
         <v>0.14501883365240353</v>
       </c>
       <c r="I66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21460192077599985</v>
       </c>
       <c r="K66">
-        <f>H66/4</f>
+        <f t="shared" ref="K66:K97" si="9">H66/4</f>
         <v>3.6254708413100883E-2</v>
       </c>
       <c r="L66">
-        <f>I66/4</f>
+        <f t="shared" ref="L66:L97" si="10">I66/4</f>
         <v>5.3650480193999962E-2</v>
       </c>
       <c r="M66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>8.9905188607100839E-2</v>
       </c>
     </row>
@@ -6216,23 +6216,23 @@
         <v>1.2628801371423012E-5</v>
       </c>
       <c r="H67">
-        <f>A67*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.60447793491937085</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I130" si="2">B67*3*12</f>
+        <f t="shared" ref="I67:I130" si="11">B67*3*12</f>
         <v>0.90624716919100412</v>
       </c>
       <c r="K67">
-        <f>H67/4</f>
+        <f t="shared" si="9"/>
         <v>0.15111948372984271</v>
       </c>
       <c r="L67">
-        <f>I67/4</f>
+        <f t="shared" si="10"/>
         <v>0.22656179229775103</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M130" si="3">SUM(K67:L67)</f>
+        <f t="shared" ref="M67:M130" si="12">SUM(K67:L67)</f>
         <v>0.37768127602759372</v>
       </c>
     </row>
@@ -6256,23 +6256,23 @@
         <v>6.7000153856719847E-5</v>
       </c>
       <c r="H68">
-        <f>A68*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.58581097263094517</v>
       </c>
       <c r="I68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.87646539586568539</v>
       </c>
       <c r="K68">
-        <f>H68/4</f>
+        <f t="shared" si="9"/>
         <v>0.14645274315773629</v>
       </c>
       <c r="L68">
-        <f>I68/4</f>
+        <f t="shared" si="10"/>
         <v>0.21911634896642135</v>
       </c>
       <c r="M68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.36556909212415767</v>
       </c>
     </row>
@@ -6296,23 +6296,23 @@
         <v>1.7112149953121875E-3</v>
       </c>
       <c r="H69">
-        <f>A69*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.60020934082566157</v>
       </c>
       <c r="I69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.83862050067068028</v>
       </c>
       <c r="K69">
-        <f>H69/4</f>
+        <f t="shared" si="9"/>
         <v>0.15005233520641539</v>
       </c>
       <c r="L69">
-        <f>I69/4</f>
+        <f t="shared" si="10"/>
         <v>0.20965512516767007</v>
       </c>
       <c r="M69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.35970746037408546</v>
       </c>
     </row>
@@ -6336,23 +6336,23 @@
         <v>4.1912605994867846E-2</v>
       </c>
       <c r="H70">
-        <f>A70*2*12</f>
+        <f t="shared" si="8"/>
         <v>1.0062678470847397</v>
       </c>
       <c r="I70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.9919883449336404E-5</v>
       </c>
       <c r="K70">
-        <f>H70/4</f>
+        <f t="shared" si="9"/>
         <v>0.25156696177118493</v>
       </c>
       <c r="L70">
-        <f>I70/4</f>
+        <f t="shared" si="10"/>
         <v>7.4799708623341011E-6</v>
       </c>
       <c r="M70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.25157444174204724</v>
       </c>
     </row>
@@ -6376,23 +6376,23 @@
         <v>1.0289588818999681E-5</v>
       </c>
       <c r="H71">
-        <f>A71*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.63988698740773686</v>
       </c>
       <c r="I71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.95945220530175845</v>
       </c>
       <c r="K71">
-        <f>H71/4</f>
+        <f t="shared" si="9"/>
         <v>0.15997174685193422</v>
       </c>
       <c r="L71">
-        <f>I71/4</f>
+        <f t="shared" si="10"/>
         <v>0.23986305132543961</v>
       </c>
       <c r="M71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.39983479817737383</v>
       </c>
     </row>
@@ -6416,23 +6416,23 @@
         <v>3.6856559475107716E-3</v>
       </c>
       <c r="H72">
-        <f>A72*2*12</f>
+        <f t="shared" si="8"/>
         <v>1.0074437333012665</v>
       </c>
       <c r="I72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.3863372055599681</v>
       </c>
       <c r="K72">
-        <f>H72/4</f>
+        <f t="shared" si="9"/>
         <v>0.25186093332531662</v>
       </c>
       <c r="L72">
-        <f>I72/4</f>
+        <f t="shared" si="10"/>
         <v>0.34658430138999202</v>
       </c>
       <c r="M72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.59844523471530864</v>
       </c>
     </row>
@@ -6456,23 +6456,23 @@
         <v>2.0440257556626309E-4</v>
       </c>
       <c r="H73">
-        <f>A73*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.16747054769257835</v>
       </c>
       <c r="I73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.24380986611235311</v>
       </c>
       <c r="K73">
-        <f>H73/4</f>
+        <f t="shared" si="9"/>
         <v>4.1867636923144588E-2</v>
       </c>
       <c r="L73">
-        <f>I73/4</f>
+        <f t="shared" si="10"/>
         <v>6.0952466528088278E-2</v>
       </c>
       <c r="M73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.10282010345123287</v>
       </c>
     </row>
@@ -6496,23 +6496,23 @@
         <v>2.0831889416054051E-4</v>
       </c>
       <c r="H74">
-        <f>A74*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.16717982088210853</v>
       </c>
       <c r="I74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.24323316264857092</v>
       </c>
       <c r="K74">
-        <f>H74/4</f>
+        <f t="shared" si="9"/>
         <v>4.1794955220527133E-2</v>
       </c>
       <c r="L74">
-        <f>I74/4</f>
+        <f t="shared" si="10"/>
         <v>6.080829066214273E-2</v>
       </c>
       <c r="M74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.10260324588266986</v>
       </c>
     </row>
@@ -6536,23 +6536,23 @@
         <v>2.191968746154986E-4</v>
       </c>
       <c r="H75">
-        <f>A75*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.7407431889603785</v>
       </c>
       <c r="I75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.1040435340459287</v>
       </c>
       <c r="K75">
-        <f>H75/4</f>
+        <f t="shared" si="9"/>
         <v>0.18518579724009462</v>
       </c>
       <c r="L75">
-        <f>I75/4</f>
+        <f t="shared" si="10"/>
         <v>0.27601088351148217</v>
       </c>
       <c r="M75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.46119668075157683</v>
       </c>
     </row>
@@ -6576,23 +6576,23 @@
         <v>3.928099100068784E-3</v>
       </c>
       <c r="H76">
-        <f>A76*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.45136635831242239</v>
       </c>
       <c r="I76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.53559956243932572</v>
       </c>
       <c r="K76">
-        <f>H76/4</f>
+        <f t="shared" si="9"/>
         <v>0.1128415895781056</v>
       </c>
       <c r="L76">
-        <f>I76/4</f>
+        <f t="shared" si="10"/>
         <v>0.13389989060983143</v>
       </c>
       <c r="M76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.24674148018793701</v>
       </c>
     </row>
@@ -6616,23 +6616,23 @@
         <v>2.8179943777016572E-4</v>
       </c>
       <c r="H77">
-        <f>A77*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.17873536048525024</v>
       </c>
       <c r="I77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.25792366722047189</v>
       </c>
       <c r="K77">
-        <f>H77/4</f>
+        <f t="shared" si="9"/>
         <v>4.468384012131256E-2</v>
       </c>
       <c r="L77">
-        <f>I77/4</f>
+        <f t="shared" si="10"/>
         <v>6.4480916805117972E-2</v>
       </c>
       <c r="M77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.10916475692643053</v>
       </c>
     </row>
@@ -6656,23 +6656,23 @@
         <v>4.1993885700425587E-2</v>
       </c>
       <c r="H78">
-        <f>A78*2*12</f>
+        <f t="shared" si="8"/>
         <v>1.0082266716982793</v>
       </c>
       <c r="I78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.1103528778847765E-5</v>
       </c>
       <c r="K78">
-        <f>H78/4</f>
+        <f t="shared" si="9"/>
         <v>0.25205666792456982</v>
       </c>
       <c r="L78">
-        <f>I78/4</f>
+        <f t="shared" si="10"/>
         <v>7.7758821947119413E-6</v>
       </c>
       <c r="M78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.25206444380676452</v>
       </c>
     </row>
@@ -6696,23 +6696,23 @@
         <v>2.1989664896959931E-3</v>
       </c>
       <c r="H79">
-        <f>A79*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.36315557830672129</v>
       </c>
       <c r="I79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.46553810248848082</v>
       </c>
       <c r="K79">
-        <f>H79/4</f>
+        <f t="shared" si="9"/>
         <v>9.0788894576680323E-2</v>
       </c>
       <c r="L79">
-        <f>I79/4</f>
+        <f t="shared" si="10"/>
         <v>0.11638452562212021</v>
       </c>
       <c r="M79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.20717342019880053</v>
       </c>
     </row>
@@ -6736,23 +6736,23 @@
         <v>9.9768862297900561E-5</v>
       </c>
       <c r="H80">
-        <f>A80*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.60831922375321934</v>
       </c>
       <c r="I80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.90924504037697085</v>
       </c>
       <c r="K80">
-        <f>H80/4</f>
+        <f t="shared" si="9"/>
         <v>0.15207980593830484</v>
       </c>
       <c r="L80">
-        <f>I80/4</f>
+        <f t="shared" si="10"/>
         <v>0.22731126009424271</v>
       </c>
       <c r="M80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.37939106603254757</v>
       </c>
     </row>
@@ -6776,23 +6776,23 @@
         <v>9.6121540178401531E-5</v>
       </c>
       <c r="H81">
-        <f>A81*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.63333128740158051</v>
       </c>
       <c r="I81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.94687055416043797</v>
       </c>
       <c r="K81">
-        <f>H81/4</f>
+        <f t="shared" si="9"/>
         <v>0.15833282185039513</v>
       </c>
       <c r="L81">
-        <f>I81/4</f>
+        <f t="shared" si="10"/>
         <v>0.23671763854010949</v>
       </c>
       <c r="M81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.39505046039050462</v>
       </c>
     </row>
@@ -6816,23 +6816,23 @@
         <v>2.727812184803672E-3</v>
       </c>
       <c r="H82">
-        <f>A82*2*12</f>
+        <f t="shared" si="8"/>
         <v>1.0063718607211389</v>
       </c>
       <c r="I82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.4120802666489483</v>
       </c>
       <c r="K82">
-        <f>H82/4</f>
+        <f t="shared" si="9"/>
         <v>0.25159296518028473</v>
       </c>
       <c r="L82">
-        <f>I82/4</f>
+        <f t="shared" si="10"/>
         <v>0.35302006666223706</v>
       </c>
       <c r="M82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.6046130318425218</v>
       </c>
     </row>
@@ -6856,23 +6856,23 @@
         <v>8.6794789233237533E-6</v>
       </c>
       <c r="H83">
-        <f>A83*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.66403616414264954</v>
       </c>
       <c r="I83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.99572322733711627</v>
       </c>
       <c r="K83">
-        <f>H83/4</f>
+        <f t="shared" si="9"/>
         <v>0.16600904103566239</v>
       </c>
       <c r="L83">
-        <f>I83/4</f>
+        <f t="shared" si="10"/>
         <v>0.24893080683427907</v>
       </c>
       <c r="M83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.41493984786994142</v>
       </c>
     </row>
@@ -6896,23 +6896,23 @@
         <v>9.8899485238645763E-5</v>
       </c>
       <c r="H84">
-        <f>A84*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.62531274012165494</v>
       </c>
       <c r="I84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.93475430450383068</v>
       </c>
       <c r="K84">
-        <f>H84/4</f>
+        <f t="shared" si="9"/>
         <v>0.15632818503041374</v>
       </c>
       <c r="L84">
-        <f>I84/4</f>
+        <f t="shared" si="10"/>
         <v>0.23368857612595767</v>
       </c>
       <c r="M84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.39001676115637141</v>
       </c>
     </row>
@@ -6936,23 +6936,23 @@
         <v>2.2275030613655711E-3</v>
       </c>
       <c r="H85">
-        <f>A85*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.36492066895792086</v>
       </c>
       <c r="I85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.46715840898343375</v>
       </c>
       <c r="K85">
-        <f>H85/4</f>
+        <f t="shared" si="9"/>
         <v>9.1230167239480214E-2</v>
       </c>
       <c r="L85">
-        <f>I85/4</f>
+        <f t="shared" si="10"/>
         <v>0.11678960224585844</v>
       </c>
       <c r="M85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.20801976948533865</v>
       </c>
     </row>
@@ -6976,23 +6976,23 @@
         <v>8.9258575952326524E-4</v>
       </c>
       <c r="H86">
-        <f>A86*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.2582887689629722</v>
       </c>
       <c r="I86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.35528142282920144</v>
       </c>
       <c r="K86">
-        <f>H86/4</f>
+        <f t="shared" si="9"/>
         <v>6.4572192240743051E-2</v>
       </c>
       <c r="L86">
-        <f>I86/4</f>
+        <f t="shared" si="10"/>
         <v>8.8820355707300361E-2</v>
       </c>
       <c r="M86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.15339254794804341</v>
       </c>
     </row>
@@ -7016,23 +7016,23 @@
         <v>2.6540557586571551E-3</v>
       </c>
       <c r="H87">
-        <f>A87*2*12</f>
+        <f t="shared" si="8"/>
         <v>1.0050015344627745</v>
       </c>
       <c r="I87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.4145952686371988</v>
       </c>
       <c r="K87">
-        <f>H87/4</f>
+        <f t="shared" si="9"/>
         <v>0.25125038361569363</v>
       </c>
       <c r="L87">
-        <f>I87/4</f>
+        <f t="shared" si="10"/>
         <v>0.35364881715929969</v>
       </c>
       <c r="M87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.60489920077499337</v>
       </c>
     </row>
@@ -7056,23 +7056,23 @@
         <v>5.5230822006608737E-3</v>
       </c>
       <c r="H88">
-        <f>A88*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.51770681698085064</v>
       </c>
       <c r="I88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.5776828411217011</v>
       </c>
       <c r="K88">
-        <f>H88/4</f>
+        <f t="shared" si="9"/>
         <v>0.12942670424521266</v>
       </c>
       <c r="L88">
-        <f>I88/4</f>
+        <f t="shared" si="10"/>
         <v>0.14442071028042527</v>
       </c>
       <c r="M88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.27384741452563793</v>
       </c>
     </row>
@@ -7096,23 +7096,23 @@
         <v>4.192294057193461E-2</v>
       </c>
       <c r="H89">
-        <f>A89*2*12</f>
+        <f t="shared" si="8"/>
         <v>1.0065331339695796</v>
       </c>
       <c r="I89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.9577225932956746E-5</v>
       </c>
       <c r="K89">
-        <f>H89/4</f>
+        <f t="shared" si="9"/>
         <v>0.25163328349239489</v>
       </c>
       <c r="L89">
-        <f>I89/4</f>
+        <f t="shared" si="10"/>
         <v>7.3943064832391864E-6</v>
       </c>
       <c r="M89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.25164067779887811</v>
       </c>
     </row>
@@ -7136,23 +7136,23 @@
         <v>6.5395447586556583E-5</v>
       </c>
       <c r="H90">
-        <f>A90*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.58606044617476094</v>
       </c>
       <c r="I90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.87689304031205606</v>
       </c>
       <c r="K90">
-        <f>H90/4</f>
+        <f t="shared" si="9"/>
         <v>0.14651511154369024</v>
       </c>
       <c r="L90">
-        <f>I90/4</f>
+        <f t="shared" si="10"/>
         <v>0.21922326007801402</v>
       </c>
       <c r="M90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.36573837162170425</v>
       </c>
     </row>
@@ -7176,23 +7176,23 @@
         <v>8.4029574379999914E-6</v>
       </c>
       <c r="H91">
-        <f>A91*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.6599353691797426</v>
       </c>
       <c r="I91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.98958009081367004</v>
       </c>
       <c r="K91">
-        <f>H91/4</f>
+        <f t="shared" si="9"/>
         <v>0.16498384229493565</v>
       </c>
       <c r="L91">
-        <f>I91/4</f>
+        <f t="shared" si="10"/>
         <v>0.24739502270341751</v>
       </c>
       <c r="M91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.41237886499835319</v>
       </c>
     </row>
@@ -7216,23 +7216,23 @@
         <v>1.7834128038627777E-4</v>
       </c>
       <c r="H92">
-        <f>A92*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.16973377422090008</v>
       </c>
       <c r="I92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.24814407654264425</v>
       </c>
       <c r="K92">
-        <f>H92/4</f>
+        <f t="shared" si="9"/>
         <v>4.243344355522502E-2</v>
       </c>
       <c r="L92">
-        <f>I92/4</f>
+        <f t="shared" si="10"/>
         <v>6.2036019135661064E-2</v>
       </c>
       <c r="M92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.10446946269088608</v>
       </c>
     </row>
@@ -7256,23 +7256,23 @@
         <v>4.1886102790228176E-2</v>
       </c>
       <c r="H93">
-        <f>A93*2*12</f>
+        <f t="shared" si="8"/>
         <v>1.0056528153272031</v>
       </c>
       <c r="I93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.0101931084540165E-5</v>
       </c>
       <c r="K93">
-        <f>H93/4</f>
+        <f t="shared" si="9"/>
         <v>0.25141320383180077</v>
       </c>
       <c r="L93">
-        <f>I93/4</f>
+        <f t="shared" si="10"/>
         <v>7.5254827711350413E-6</v>
       </c>
       <c r="M93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.25142072931457188</v>
       </c>
     </row>
@@ -7296,23 +7296,23 @@
         <v>7.0182207635236795E-3</v>
       </c>
       <c r="H94">
-        <f>A94*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.56508130250312416</v>
       </c>
       <c r="I94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.59489077801229451</v>
       </c>
       <c r="K94">
-        <f>H94/4</f>
+        <f t="shared" si="9"/>
         <v>0.14127032562578104</v>
       </c>
       <c r="L94">
-        <f>I94/4</f>
+        <f t="shared" si="10"/>
         <v>0.14872269450307363</v>
       </c>
       <c r="M94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.28999302012885464</v>
       </c>
     </row>
@@ -7336,23 +7336,23 @@
         <v>9.7292687592351508E-6</v>
       </c>
       <c r="H95">
-        <f>A95*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.64646066123989887</v>
       </c>
       <c r="I95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.96932605088553614</v>
       </c>
       <c r="K95">
-        <f>H95/4</f>
+        <f t="shared" si="9"/>
         <v>0.16161516530997472</v>
       </c>
       <c r="L95">
-        <f>I95/4</f>
+        <f t="shared" si="10"/>
         <v>0.24233151272138403</v>
       </c>
       <c r="M95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.40394667803135875</v>
       </c>
     </row>
@@ -7376,23 +7376,23 @@
         <v>4.4210118116792489E-3</v>
       </c>
       <c r="H96">
-        <f>A96*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.47462084453852948</v>
       </c>
       <c r="I96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.55273372939571042</v>
       </c>
       <c r="K96">
-        <f>H96/4</f>
+        <f t="shared" si="9"/>
         <v>0.11865521113463237</v>
       </c>
       <c r="L96">
-        <f>I96/4</f>
+        <f t="shared" si="10"/>
         <v>0.1381834323489276</v>
       </c>
       <c r="M96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.25683864348356</v>
       </c>
     </row>
@@ -7416,23 +7416,23 @@
         <v>6.1343014154298056E-4</v>
       </c>
       <c r="H97">
-        <f>A97*2*12</f>
+        <f t="shared" si="8"/>
         <v>0.22709562627074925</v>
       </c>
       <c r="I97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.31854352163846816</v>
       </c>
       <c r="K97">
-        <f>H97/4</f>
+        <f t="shared" si="9"/>
         <v>5.6773906567687313E-2</v>
       </c>
       <c r="L97">
-        <f>I97/4</f>
+        <f t="shared" si="10"/>
         <v>7.9635880409617041E-2</v>
       </c>
       <c r="M97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.13640978697730435</v>
       </c>
     </row>
@@ -7456,23 +7456,23 @@
         <v>3.6303341281197499E-3</v>
       </c>
       <c r="H98">
-        <f>A98*2*12</f>
+        <f t="shared" ref="H98:H129" si="13">A98*2*12</f>
         <v>1.0074438463461144</v>
       </c>
       <c r="I98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.3882545579145331</v>
       </c>
       <c r="K98">
-        <f>H98/4</f>
+        <f t="shared" ref="K98:K129" si="14">H98/4</f>
         <v>0.2518609615865286</v>
       </c>
       <c r="L98">
-        <f>I98/4</f>
+        <f t="shared" ref="L98:L129" si="15">I98/4</f>
         <v>0.34706363947863328</v>
       </c>
       <c r="M98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.59892460106516188</v>
       </c>
     </row>
@@ -7496,23 +7496,23 @@
         <v>9.6474414514544517E-6</v>
       </c>
       <c r="H99">
-        <f>A99*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.64177606566841572</v>
       </c>
       <c r="I99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.96230080883217473</v>
       </c>
       <c r="K99">
-        <f>H99/4</f>
+        <f t="shared" si="14"/>
         <v>0.16044401641710393</v>
       </c>
       <c r="L99">
-        <f>I99/4</f>
+        <f t="shared" si="15"/>
         <v>0.24057520220804368</v>
       </c>
       <c r="M99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.40101921862514761</v>
       </c>
     </row>
@@ -7536,23 +7536,23 @@
         <v>5.9961984387854349E-5</v>
       </c>
       <c r="H100">
-        <f>A100*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.1358916503493085</v>
       </c>
       <c r="I100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.20163618678091511</v>
       </c>
       <c r="K100">
-        <f>H100/4</f>
+        <f t="shared" si="14"/>
         <v>3.3972912587327125E-2</v>
       </c>
       <c r="L100">
-        <f>I100/4</f>
+        <f t="shared" si="15"/>
         <v>5.0409046695228776E-2</v>
       </c>
       <c r="M100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>8.4381959282555902E-2</v>
       </c>
     </row>
@@ -7576,23 +7576,23 @@
         <v>8.5434052868438254E-6</v>
       </c>
       <c r="H101">
-        <f>A101*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.65082601157502662</v>
       </c>
       <c r="I101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.97591203670093418</v>
       </c>
       <c r="K101">
-        <f>H101/4</f>
+        <f t="shared" si="14"/>
         <v>0.16270650289375665</v>
       </c>
       <c r="L101">
-        <f>I101/4</f>
+        <f t="shared" si="15"/>
         <v>0.24397800917523355</v>
       </c>
       <c r="M101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.4066845120689902</v>
       </c>
     </row>
@@ -7616,23 +7616,23 @@
         <v>1.7244106530918868E-3</v>
       </c>
       <c r="H102">
-        <f>A102*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.32839201390727146</v>
       </c>
       <c r="I102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.43047982915113481</v>
       </c>
       <c r="K102">
-        <f>H102/4</f>
+        <f t="shared" si="14"/>
         <v>8.2098003476817866E-2</v>
       </c>
       <c r="L102">
-        <f>I102/4</f>
+        <f t="shared" si="15"/>
         <v>0.1076199572877837</v>
       </c>
       <c r="M102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.18971796076460157</v>
       </c>
     </row>
@@ -7656,23 +7656,23 @@
         <v>1.4067034895078471E-5</v>
       </c>
       <c r="H103">
-        <f>A103*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.59665673891989723</v>
       </c>
       <c r="I103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.89446395345284069</v>
       </c>
       <c r="K103">
-        <f>H103/4</f>
+        <f t="shared" si="14"/>
         <v>0.14916418472997431</v>
       </c>
       <c r="L103">
-        <f>I103/4</f>
+        <f t="shared" si="15"/>
         <v>0.22361598836321017</v>
       </c>
       <c r="M103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.37278017309318445</v>
       </c>
     </row>
@@ -7696,23 +7696,23 @@
         <v>3.2587776259177712E-3</v>
       </c>
       <c r="H104">
-        <f>A104*2*12</f>
+        <f t="shared" si="13"/>
         <v>1.0060969456960955</v>
       </c>
       <c r="I104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.3924449961022247</v>
       </c>
       <c r="K104">
-        <f>H104/4</f>
+        <f t="shared" si="14"/>
         <v>0.25152423642402388</v>
       </c>
       <c r="L104">
-        <f>I104/4</f>
+        <f t="shared" si="15"/>
         <v>0.34811124902555618</v>
       </c>
       <c r="M104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.59963548544958001</v>
       </c>
     </row>
@@ -7736,23 +7736,23 @@
         <v>2.4523250749558696E-3</v>
       </c>
       <c r="H105">
-        <f>A105*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.37695072365450077</v>
       </c>
       <c r="I105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.47710943399921107</v>
       </c>
       <c r="K105">
-        <f>H105/4</f>
+        <f t="shared" si="14"/>
         <v>9.4237680913625194E-2</v>
       </c>
       <c r="L105">
-        <f>I105/4</f>
+        <f t="shared" si="15"/>
         <v>0.11927735849980277</v>
       </c>
       <c r="M105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.21351503941342798</v>
       </c>
     </row>
@@ -7776,23 +7776,23 @@
         <v>4.2072452338602268E-2</v>
       </c>
       <c r="H106">
-        <f>A106*2*12</f>
+        <f t="shared" si="13"/>
         <v>1.0101757085319873</v>
       </c>
       <c r="I106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.3171247192429199E-4</v>
       </c>
       <c r="K106">
-        <f>H106/4</f>
+        <f t="shared" si="14"/>
         <v>0.25254392713299684</v>
       </c>
       <c r="L106">
-        <f>I106/4</f>
+        <f t="shared" si="15"/>
         <v>3.2928117981072998E-5</v>
       </c>
       <c r="M106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.25257685525097789</v>
       </c>
     </row>
@@ -7816,23 +7816,23 @@
         <v>9.016163004387384E-6</v>
       </c>
       <c r="H107">
-        <f>A107*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.66046219589774313</v>
       </c>
       <c r="I107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.99035078202827287</v>
       </c>
       <c r="K107">
-        <f>H107/4</f>
+        <f t="shared" si="14"/>
         <v>0.16511554897443578</v>
       </c>
       <c r="L107">
-        <f>I107/4</f>
+        <f t="shared" si="15"/>
         <v>0.24758769550706822</v>
       </c>
       <c r="M107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.41270324448150397</v>
       </c>
     </row>
@@ -7856,23 +7856,23 @@
         <v>7.564290705765222E-5</v>
       </c>
       <c r="H108">
-        <f>A108*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.13583165992586727</v>
       </c>
       <c r="I108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.20098109086831806</v>
       </c>
       <c r="K108">
-        <f>H108/4</f>
+        <f t="shared" si="14"/>
         <v>3.3957914981466816E-2</v>
       </c>
       <c r="L108">
-        <f>I108/4</f>
+        <f t="shared" si="15"/>
         <v>5.0245272717079514E-2</v>
       </c>
       <c r="M108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>8.4203187698546331E-2</v>
       </c>
     </row>
@@ -7896,23 +7896,23 @@
         <v>4.1984669833362083E-2</v>
       </c>
       <c r="H109">
-        <f>A109*2*12</f>
+        <f t="shared" si="13"/>
         <v>1.0080059813720053</v>
       </c>
       <c r="I109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.0224817428890026E-5</v>
       </c>
       <c r="K109">
-        <f>H109/4</f>
+        <f t="shared" si="14"/>
         <v>0.25200149534300131</v>
       </c>
       <c r="L109">
-        <f>I109/4</f>
+        <f t="shared" si="15"/>
         <v>7.5562043572225064E-6</v>
       </c>
       <c r="M109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.25200905154735853</v>
       </c>
     </row>
@@ -7936,23 +7936,23 @@
         <v>8.0910961375092445E-5</v>
       </c>
       <c r="H110">
-        <f>A110*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.58576522632742112</v>
       </c>
       <c r="I110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.87597447744257728</v>
       </c>
       <c r="K110">
-        <f>H110/4</f>
+        <f t="shared" si="14"/>
         <v>0.14644130658185528</v>
       </c>
       <c r="L110">
-        <f>I110/4</f>
+        <f t="shared" si="15"/>
         <v>0.21899361936064432</v>
       </c>
       <c r="M110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.3654349259424996</v>
       </c>
     </row>
@@ -7976,23 +7976,23 @@
         <v>4.1748128806656855E-2</v>
       </c>
       <c r="H111">
-        <f>A111*2*12</f>
+        <f t="shared" si="13"/>
         <v>1.0023330259801906</v>
       </c>
       <c r="I111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.9602826657272825E-5</v>
       </c>
       <c r="K111">
-        <f>H111/4</f>
+        <f t="shared" si="14"/>
         <v>0.25058325649504765</v>
       </c>
       <c r="L111">
-        <f>I111/4</f>
+        <f t="shared" si="15"/>
         <v>7.4007066643182063E-6</v>
       </c>
       <c r="M111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.25059065720171197</v>
       </c>
     </row>
@@ -8016,23 +8016,23 @@
         <v>3.0443734178448088E-4</v>
       </c>
       <c r="H112">
-        <f>A112*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.18131789691482175</v>
       </c>
       <c r="I112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.26098631454524468</v>
       </c>
       <c r="K112">
-        <f>H112/4</f>
+        <f t="shared" si="14"/>
         <v>4.5329474228705438E-2</v>
       </c>
       <c r="L112">
-        <f>I112/4</f>
+        <f t="shared" si="15"/>
         <v>6.524657863631117E-2</v>
       </c>
       <c r="M112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.11057605286501661</v>
       </c>
     </row>
@@ -8056,23 +8056,23 @@
         <v>2.0335742291212723E-4</v>
       </c>
       <c r="H113">
-        <f>A113*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.1679636566555707</v>
       </c>
       <c r="I113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.24458860046252207</v>
       </c>
       <c r="K113">
-        <f>H113/4</f>
+        <f t="shared" si="14"/>
         <v>4.1990914163892674E-2</v>
       </c>
       <c r="L113">
-        <f>I113/4</f>
+        <f t="shared" si="15"/>
         <v>6.1147150115630516E-2</v>
       </c>
       <c r="M113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.10313806427952318</v>
       </c>
     </row>
@@ -8096,23 +8096,23 @@
         <v>4.1969412967058847E-2</v>
       </c>
       <c r="H114">
-        <f>A114*2*12</f>
+        <f t="shared" si="13"/>
         <v>1.007640036910858</v>
       </c>
       <c r="I114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>2.9864775221699785E-5</v>
       </c>
       <c r="K114">
-        <f>H114/4</f>
+        <f t="shared" si="14"/>
         <v>0.2519100092277145</v>
       </c>
       <c r="L114">
-        <f>I114/4</f>
+        <f t="shared" si="15"/>
         <v>7.4661938054249463E-6</v>
       </c>
       <c r="M114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.25191747542151993</v>
       </c>
     </row>
@@ -8136,23 +8136,23 @@
         <v>7.905326551025147E-5</v>
       </c>
       <c r="H115">
-        <f>A115*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.58031309709451717</v>
       </c>
       <c r="I115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.86786667754158908</v>
       </c>
       <c r="K115">
-        <f>H115/4</f>
+        <f t="shared" si="14"/>
         <v>0.14507827427362929</v>
       </c>
       <c r="L115">
-        <f>I115/4</f>
+        <f t="shared" si="15"/>
         <v>0.21696666938539727</v>
       </c>
       <c r="M115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.36204494365902656</v>
       </c>
     </row>
@@ -8176,23 +8176,23 @@
         <v>1.2543323940827087E-4</v>
       </c>
       <c r="H116">
-        <f>A116*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.15696903803260967</v>
       </c>
       <c r="I116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.23089522435794083</v>
       </c>
       <c r="K116">
-        <f>H116/4</f>
+        <f t="shared" si="14"/>
         <v>3.9242259508152418E-2</v>
       </c>
       <c r="L116">
-        <f>I116/4</f>
+        <f t="shared" si="15"/>
         <v>5.7723806089485206E-2</v>
       </c>
       <c r="M116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>9.6966065597637624E-2</v>
       </c>
     </row>
@@ -8216,23 +8216,23 @@
         <v>9.6800712369097205E-5</v>
       </c>
       <c r="H117">
-        <f>A117*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.60721636853297223</v>
       </c>
       <c r="I117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.90768933176038136</v>
       </c>
       <c r="K117">
-        <f>H117/4</f>
+        <f t="shared" si="14"/>
         <v>0.15180409213324306</v>
       </c>
       <c r="L117">
-        <f>I117/4</f>
+        <f t="shared" si="15"/>
         <v>0.22692233294009534</v>
       </c>
       <c r="M117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.37872642507333842</v>
       </c>
     </row>
@@ -8256,23 +8256,23 @@
         <v>9.9809917073798296E-5</v>
       </c>
       <c r="H118">
-        <f>A118*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.59755204929819294</v>
       </c>
       <c r="I118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.89310167959612674</v>
       </c>
       <c r="K118">
-        <f>H118/4</f>
+        <f t="shared" si="14"/>
         <v>0.14938801232454824</v>
       </c>
       <c r="L118">
-        <f>I118/4</f>
+        <f t="shared" si="15"/>
         <v>0.22327541989903169</v>
       </c>
       <c r="M118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.37266343222357989</v>
       </c>
     </row>
@@ -8296,23 +8296,23 @@
         <v>4.201256785538398E-2</v>
       </c>
       <c r="H119">
-        <f>A119*2*12</f>
+        <f t="shared" si="13"/>
         <v>1.0086829060762905</v>
       </c>
       <c r="I119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>3.205807946806651E-5</v>
       </c>
       <c r="K119">
-        <f>H119/4</f>
+        <f t="shared" si="14"/>
         <v>0.25217072651907263</v>
       </c>
       <c r="L119">
-        <f>I119/4</f>
+        <f t="shared" si="15"/>
         <v>8.0145198670166275E-6</v>
       </c>
       <c r="M119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.25217874103893967</v>
       </c>
     </row>
@@ -8336,23 +8336,23 @@
         <v>8.4734554218612767E-5</v>
       </c>
       <c r="H120">
-        <f>A120*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.58351475791048424</v>
       </c>
       <c r="I120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.87249418496511111</v>
       </c>
       <c r="K120">
-        <f>H120/4</f>
+        <f t="shared" si="14"/>
         <v>0.14587868947762106</v>
       </c>
       <c r="L120">
-        <f>I120/4</f>
+        <f t="shared" si="15"/>
         <v>0.21812354624127778</v>
       </c>
       <c r="M120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.36400223571889884</v>
       </c>
     </row>
@@ -8376,23 +8376,23 @@
         <v>1.7538823690964225E-4</v>
       </c>
       <c r="H121">
-        <f>A121*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.16202940905927421</v>
       </c>
       <c r="I121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.23665630540055135</v>
       </c>
       <c r="K121">
-        <f>H121/4</f>
+        <f t="shared" si="14"/>
         <v>4.0507352264818552E-2</v>
       </c>
       <c r="L121">
-        <f>I121/4</f>
+        <f t="shared" si="15"/>
         <v>5.9164076350137838E-2</v>
       </c>
       <c r="M121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>9.9671428614956398E-2</v>
       </c>
     </row>
@@ -8416,23 +8416,23 @@
         <v>8.1396067983447137E-5</v>
       </c>
       <c r="H122">
-        <f>A122*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.13620230377848325</v>
       </c>
       <c r="I122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.20133005386861869</v>
       </c>
       <c r="K122">
-        <f>H122/4</f>
+        <f t="shared" si="14"/>
         <v>3.4050575944620812E-2</v>
       </c>
       <c r="L122">
-        <f>I122/4</f>
+        <f t="shared" si="15"/>
         <v>5.0332513467154671E-2</v>
       </c>
       <c r="M122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>8.4383089411775483E-2</v>
       </c>
     </row>
@@ -8456,23 +8456,23 @@
         <v>6.0284783509199409E-5</v>
       </c>
       <c r="H123">
-        <f>A123*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.14531420429527586</v>
       </c>
       <c r="I123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.21575869968046074</v>
       </c>
       <c r="K123">
-        <f>H123/4</f>
+        <f t="shared" si="14"/>
         <v>3.6328551073818965E-2</v>
       </c>
       <c r="L123">
-        <f>I123/4</f>
+        <f t="shared" si="15"/>
         <v>5.3939674920115185E-2</v>
       </c>
       <c r="M123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>9.0268225993934151E-2</v>
       </c>
     </row>
@@ -8496,23 +8496,23 @@
         <v>6.3627298486168568E-5</v>
       </c>
       <c r="H124">
-        <f>A124*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.14810441300652349</v>
       </c>
       <c r="I124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.21982353170172989</v>
       </c>
       <c r="K124">
-        <f>H124/4</f>
+        <f t="shared" si="14"/>
         <v>3.7026103251630874E-2</v>
       </c>
       <c r="L124">
-        <f>I124/4</f>
+        <f t="shared" si="15"/>
         <v>5.4955882925432471E-2</v>
       </c>
       <c r="M124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>9.1981986177063352E-2</v>
       </c>
     </row>
@@ -8536,23 +8536,23 @@
         <v>6.786487678833369E-4</v>
       </c>
       <c r="H125">
-        <f>A125*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.20182663705737813</v>
       </c>
       <c r="I125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.27828629869586652</v>
       </c>
       <c r="K125">
-        <f>H125/4</f>
+        <f t="shared" si="14"/>
         <v>5.0456659264344533E-2</v>
       </c>
       <c r="L125">
-        <f>I125/4</f>
+        <f t="shared" si="15"/>
         <v>6.957157467396663E-2</v>
       </c>
       <c r="M125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.12002823393831116</v>
       </c>
     </row>
@@ -8576,23 +8576,23 @@
         <v>2.5507299434520759E-3</v>
       </c>
       <c r="H126">
-        <f>A126*2*12</f>
+        <f t="shared" si="13"/>
         <v>1.0087111165151867</v>
       </c>
       <c r="I126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>1.4212976296928754</v>
       </c>
       <c r="K126">
-        <f>H126/4</f>
+        <f t="shared" si="14"/>
         <v>0.25217777912879669</v>
       </c>
       <c r="L126">
-        <f>I126/4</f>
+        <f t="shared" si="15"/>
         <v>0.35532440742321886</v>
       </c>
       <c r="M126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.6075021865520156</v>
       </c>
     </row>
@@ -8616,23 +8616,23 @@
         <v>1.1362371150221289E-5</v>
       </c>
       <c r="H127">
-        <f>A127*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.60654819337240351</v>
       </c>
       <c r="I127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.9093974765910996</v>
       </c>
       <c r="K127">
-        <f>H127/4</f>
+        <f t="shared" si="14"/>
         <v>0.15163704834310088</v>
       </c>
       <c r="L127">
-        <f>I127/4</f>
+        <f t="shared" si="15"/>
         <v>0.2273493691477749</v>
       </c>
       <c r="M127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.3789864174908758</v>
       </c>
     </row>
@@ -8656,23 +8656,23 @@
         <v>1.0055301785304464E-5</v>
       </c>
       <c r="H128">
-        <f>A128*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.61869810649136836</v>
       </c>
       <c r="I128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.92766800124087556</v>
       </c>
       <c r="K128">
-        <f>H128/4</f>
+        <f t="shared" si="14"/>
         <v>0.15467452662284209</v>
       </c>
       <c r="L128">
-        <f>I128/4</f>
+        <f t="shared" si="15"/>
         <v>0.23191700031021889</v>
       </c>
       <c r="M128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.38659152693306098</v>
       </c>
     </row>
@@ -8696,23 +8696,23 @@
         <v>3.2265628469051757E-4</v>
       </c>
       <c r="H129">
-        <f>A129*2*12</f>
+        <f t="shared" si="13"/>
         <v>0.65850451882924577</v>
       </c>
       <c r="I129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.97728371824993676</v>
       </c>
       <c r="K129">
-        <f>H129/4</f>
+        <f t="shared" si="14"/>
         <v>0.16462612970731144</v>
       </c>
       <c r="L129">
-        <f>I129/4</f>
+        <f t="shared" si="15"/>
         <v>0.24432092956248419</v>
       </c>
       <c r="M129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0.40894705926979563</v>
       </c>
     </row>
@@ -8736,23 +8736,23 @@
         <v>1.753132324848471E-4</v>
       </c>
       <c r="H130">
-        <f>A130*2*12</f>
+        <f t="shared" ref="H130:H161" si="16">A130*2*12</f>
         <v>0.16173090716609489</v>
       </c>
       <c r="I130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="11"/>
         <v>0.23624854908017359</v>
       </c>
       <c r="K130">
-        <f>H130/4</f>
+        <f t="shared" ref="K130:K161" si="17">H130/4</f>
         <v>4.0432726791523724E-2</v>
       </c>
       <c r="L130">
-        <f>I130/4</f>
+        <f t="shared" ref="L130:L161" si="18">I130/4</f>
         <v>5.9062137270043398E-2</v>
       </c>
       <c r="M130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>9.9494864061567129E-2</v>
       </c>
     </row>
@@ -8776,23 +8776,23 @@
         <v>9.8891977734767949E-4</v>
       </c>
       <c r="H131">
-        <f>A131*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.26846837545432595</v>
       </c>
       <c r="I131">
-        <f t="shared" ref="I131:I194" si="4">B131*3*12</f>
+        <f t="shared" ref="I131:I194" si="19">B131*3*12</f>
         <v>0.3670547820550224</v>
       </c>
       <c r="K131">
-        <f>H131/4</f>
+        <f t="shared" si="17"/>
         <v>6.7117093863581487E-2</v>
       </c>
       <c r="L131">
-        <f>I131/4</f>
+        <f t="shared" si="18"/>
         <v>9.17636955137556E-2</v>
       </c>
       <c r="M131">
-        <f t="shared" ref="M131:M194" si="5">SUM(K131:L131)</f>
+        <f t="shared" ref="M131:M194" si="20">SUM(K131:L131)</f>
         <v>0.15888078937733707</v>
       </c>
     </row>
@@ -8816,23 +8816,23 @@
         <v>1.0249117613477842E-5</v>
       </c>
       <c r="H132">
-        <f>A132*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.63969776726938321</v>
       </c>
       <c r="I132">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.95916998171483703</v>
       </c>
       <c r="K132">
-        <f>H132/4</f>
+        <f t="shared" si="17"/>
         <v>0.1599244418173458</v>
       </c>
       <c r="L132">
-        <f>I132/4</f>
+        <f t="shared" si="18"/>
         <v>0.23979249542870926</v>
       </c>
       <c r="M132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.39971693724605506</v>
       </c>
     </row>
@@ -8856,23 +8856,23 @@
         <v>4.1899172302519182E-2</v>
       </c>
       <c r="H133">
-        <f>A133*2*12</f>
+        <f t="shared" si="16"/>
         <v>1.0059682877612213</v>
       </c>
       <c r="I133">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>3.0918833020012051E-5</v>
       </c>
       <c r="K133">
-        <f>H133/4</f>
+        <f t="shared" si="17"/>
         <v>0.25149207194030532</v>
       </c>
       <c r="L133">
-        <f>I133/4</f>
+        <f t="shared" si="18"/>
         <v>7.7297082550030127E-6</v>
       </c>
       <c r="M133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.25149980164856034</v>
       </c>
     </row>
@@ -8896,23 +8896,23 @@
         <v>9.1781194112925275E-6</v>
       </c>
       <c r="H134">
-        <f>A134*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.63186898019921012</v>
       </c>
       <c r="I134">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.94745544087038713</v>
       </c>
       <c r="K134">
-        <f>H134/4</f>
+        <f t="shared" si="17"/>
         <v>0.15796724504980253</v>
       </c>
       <c r="L134">
-        <f>I134/4</f>
+        <f t="shared" si="18"/>
         <v>0.23686386021759678</v>
       </c>
       <c r="M134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.39483110526739928</v>
       </c>
     </row>
@@ -8936,23 +8936,23 @@
         <v>5.0938184333236499E-5</v>
       </c>
       <c r="H135">
-        <f>A135*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.14403463085378032</v>
       </c>
       <c r="I135">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.2141767013104843</v>
       </c>
       <c r="K135">
-        <f>H135/4</f>
+        <f t="shared" si="17"/>
         <v>3.600865771344508E-2</v>
       </c>
       <c r="L135">
-        <f>I135/4</f>
+        <f t="shared" si="18"/>
         <v>5.3544175327621076E-2</v>
       </c>
       <c r="M135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>8.9552833041066149E-2</v>
       </c>
     </row>
@@ -8976,23 +8976,23 @@
         <v>1.7239263753701106E-4</v>
       </c>
       <c r="H136">
-        <f>A136*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.62915508897219552</v>
       </c>
       <c r="I136">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.93821035939560415</v>
       </c>
       <c r="K136">
-        <f>H136/4</f>
+        <f t="shared" si="17"/>
         <v>0.15728877224304888</v>
       </c>
       <c r="L136">
-        <f>I136/4</f>
+        <f t="shared" si="18"/>
         <v>0.23455258984890104</v>
       </c>
       <c r="M136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.39184136209194992</v>
       </c>
     </row>
@@ -9016,23 +9016,23 @@
         <v>5.8144113431945999E-4</v>
       </c>
       <c r="H137">
-        <f>A137*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.22373171469664377</v>
       </c>
       <c r="I137">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.31465345658297761</v>
       </c>
       <c r="K137">
-        <f>H137/4</f>
+        <f t="shared" si="17"/>
         <v>5.5932928674160942E-2</v>
       </c>
       <c r="L137">
-        <f>I137/4</f>
+        <f t="shared" si="18"/>
         <v>7.8663364145744402E-2</v>
       </c>
       <c r="M137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.13459629281990534</v>
       </c>
     </row>
@@ -9056,23 +9056,23 @@
         <v>2.1122310713808621E-4</v>
       </c>
       <c r="H138">
-        <f>A138*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.77840298018714194</v>
       </c>
       <c r="I138">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.1607617395428627</v>
       </c>
       <c r="K138">
-        <f>H138/4</f>
+        <f t="shared" si="17"/>
         <v>0.19460074504678548</v>
       </c>
       <c r="L138">
-        <f>I138/4</f>
+        <f t="shared" si="18"/>
         <v>0.29019043488571566</v>
       </c>
       <c r="M138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.48479117993250115</v>
       </c>
     </row>
@@ -9096,23 +9096,23 @@
         <v>3.5125960937953307E-3</v>
       </c>
       <c r="H139">
-        <f>A139*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.42892457237889903</v>
       </c>
       <c r="I139">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.51689735287911009</v>
       </c>
       <c r="K139">
-        <f>H139/4</f>
+        <f t="shared" si="17"/>
         <v>0.10723114309472476</v>
       </c>
       <c r="L139">
-        <f>I139/4</f>
+        <f t="shared" si="18"/>
         <v>0.12922433821977752</v>
       </c>
       <c r="M139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.23645548131450228</v>
       </c>
     </row>
@@ -9136,23 +9136,23 @@
         <v>2.6645243396861561E-3</v>
       </c>
       <c r="H140">
-        <f>A140*2*12</f>
+        <f t="shared" si="16"/>
         <v>1.0083710174004608</v>
       </c>
       <c r="I140">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.4167318915358202</v>
       </c>
       <c r="K140">
-        <f>H140/4</f>
+        <f t="shared" si="17"/>
         <v>0.25209275435011519</v>
       </c>
       <c r="L140">
-        <f>I140/4</f>
+        <f t="shared" si="18"/>
         <v>0.35418297288395506</v>
       </c>
       <c r="M140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.60627572723407019</v>
       </c>
     </row>
@@ -9176,23 +9176,23 @@
         <v>1.0545841193422189E-4</v>
       </c>
       <c r="H141">
-        <f>A141*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.64158963020650817</v>
       </c>
       <c r="I141">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.95895762613678004</v>
       </c>
       <c r="K141">
-        <f>H141/4</f>
+        <f t="shared" si="17"/>
         <v>0.16039740755162704</v>
       </c>
       <c r="L141">
-        <f>I141/4</f>
+        <f t="shared" si="18"/>
         <v>0.23973940653419501</v>
       </c>
       <c r="M141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.40013681408582202</v>
       </c>
     </row>
@@ -9216,23 +9216,23 @@
         <v>9.6888851681867861E-6</v>
       </c>
       <c r="H142">
-        <f>A142*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.62065098793554141</v>
       </c>
       <c r="I142">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.93061036205914172</v>
       </c>
       <c r="K142">
-        <f>H142/4</f>
+        <f t="shared" si="17"/>
         <v>0.15516274698388535</v>
       </c>
       <c r="L142">
-        <f>I142/4</f>
+        <f t="shared" si="18"/>
         <v>0.23265259051478543</v>
       </c>
       <c r="M142">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.38781533749867081</v>
       </c>
     </row>
@@ -9256,23 +9256,23 @@
         <v>2.015989076336358E-4</v>
       </c>
       <c r="H143">
-        <f>A143*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.16676204716813567</v>
       </c>
       <c r="I143">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.24285145772398758</v>
       </c>
       <c r="K143">
-        <f>H143/4</f>
+        <f t="shared" si="17"/>
         <v>4.1690511792033917E-2</v>
       </c>
       <c r="L143">
-        <f>I143/4</f>
+        <f t="shared" si="18"/>
         <v>6.0712864430996896E-2</v>
       </c>
       <c r="M143">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.10240337622303081</v>
       </c>
     </row>
@@ -9296,23 +9296,23 @@
         <v>8.5388853447586558E-5</v>
       </c>
       <c r="H144">
-        <f>A144*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.14152810188066345</v>
       </c>
       <c r="I144">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.20917907956401546</v>
       </c>
       <c r="K144">
-        <f>H144/4</f>
+        <f t="shared" si="17"/>
         <v>3.5382025470165862E-2</v>
       </c>
       <c r="L144">
-        <f>I144/4</f>
+        <f t="shared" si="18"/>
         <v>5.2294769891003866E-2</v>
       </c>
       <c r="M144">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>8.7676795361169735E-2</v>
       </c>
     </row>
@@ -9336,23 +9336,23 @@
         <v>1.6990399506307277E-4</v>
       </c>
       <c r="H145">
-        <f>A145*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.15992077243689365</v>
       </c>
       <c r="I145">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.23372553682411429</v>
       </c>
       <c r="K145">
-        <f>H145/4</f>
+        <f t="shared" si="17"/>
         <v>3.9980193109223412E-2</v>
       </c>
       <c r="L145">
-        <f>I145/4</f>
+        <f t="shared" si="18"/>
         <v>5.8431384206028572E-2</v>
       </c>
       <c r="M145">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>9.8411577315251991E-2</v>
       </c>
     </row>
@@ -9376,23 +9376,23 @@
         <v>8.5006121800985305E-5</v>
       </c>
       <c r="H146">
-        <f>A146*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.1423154280772583</v>
       </c>
       <c r="I146">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.21037079163164035</v>
       </c>
       <c r="K146">
-        <f>H146/4</f>
+        <f t="shared" si="17"/>
         <v>3.5578857019314576E-2</v>
       </c>
       <c r="L146">
-        <f>I146/4</f>
+        <f t="shared" si="18"/>
         <v>5.2592697907910088E-2</v>
       </c>
       <c r="M146">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>8.8171554927224671E-2</v>
       </c>
     </row>
@@ -9416,23 +9416,23 @@
         <v>1.5412565724427741E-4</v>
       </c>
       <c r="H147">
-        <f>A147*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.17473333335293745</v>
       </c>
       <c r="I147">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.25651237874928001</v>
       </c>
       <c r="K147">
-        <f>H147/4</f>
+        <f t="shared" si="17"/>
         <v>4.3683333338234362E-2</v>
       </c>
       <c r="L147">
-        <f>I147/4</f>
+        <f t="shared" si="18"/>
         <v>6.4128094687320003E-2</v>
       </c>
       <c r="M147">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.10781142802555436</v>
       </c>
     </row>
@@ -9456,23 +9456,23 @@
         <v>5.3590300238730933E-4</v>
       </c>
       <c r="H148">
-        <f>A148*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.21783571162562609</v>
       </c>
       <c r="I148">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.30745040633514348</v>
       </c>
       <c r="K148">
-        <f>H148/4</f>
+        <f t="shared" si="17"/>
         <v>5.4458927906406523E-2</v>
       </c>
       <c r="L148">
-        <f>I148/4</f>
+        <f t="shared" si="18"/>
         <v>7.6862601583785869E-2</v>
       </c>
       <c r="M148">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.13132152949019238</v>
       </c>
     </row>
@@ -9496,23 +9496,23 @@
         <v>9.4880847164190333E-5</v>
       </c>
       <c r="H149">
-        <f>A149*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.57940138696465482</v>
       </c>
       <c r="I149">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.86599746275741885</v>
       </c>
       <c r="K149">
-        <f>H149/4</f>
+        <f t="shared" si="17"/>
         <v>0.1448503467411637</v>
       </c>
       <c r="L149">
-        <f>I149/4</f>
+        <f t="shared" si="18"/>
         <v>0.21649936568935471</v>
       </c>
       <c r="M149">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.36134971243051839</v>
       </c>
     </row>
@@ -9536,23 +9536,23 @@
         <v>9.8265201026653411E-6</v>
       </c>
       <c r="H150">
-        <f>A150*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.6231736736171043</v>
       </c>
       <c r="I150">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.93439006685254666</v>
       </c>
       <c r="K150">
-        <f>H150/4</f>
+        <f t="shared" si="17"/>
         <v>0.15579341840427607</v>
       </c>
       <c r="L150">
-        <f>I150/4</f>
+        <f t="shared" si="18"/>
         <v>0.23359751671313667</v>
       </c>
       <c r="M150">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.38939093511741274</v>
       </c>
     </row>
@@ -9576,23 +9576,23 @@
         <v>4.963086880302356E-5</v>
       </c>
       <c r="H151">
-        <f>A151*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.14103310157053406</v>
       </c>
       <c r="I151">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.20972067602337113</v>
       </c>
       <c r="K151">
-        <f>H151/4</f>
+        <f t="shared" si="17"/>
         <v>3.5258275392633515E-2</v>
       </c>
       <c r="L151">
-        <f>I151/4</f>
+        <f t="shared" si="18"/>
         <v>5.2430169005842783E-2</v>
       </c>
       <c r="M151">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>8.7688444398476298E-2</v>
       </c>
     </row>
@@ -9616,23 +9616,23 @@
         <v>1.1946130537273383E-4</v>
       </c>
       <c r="H152">
-        <f>A152*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.14621871362255973</v>
       </c>
       <c r="I152">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.21498573032696167</v>
       </c>
       <c r="K152">
-        <f>H152/4</f>
+        <f t="shared" si="17"/>
         <v>3.6554678405639932E-2</v>
       </c>
       <c r="L152">
-        <f>I152/4</f>
+        <f t="shared" si="18"/>
         <v>5.3746432581740416E-2</v>
       </c>
       <c r="M152">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>9.0301110987380348E-2</v>
       </c>
     </row>
@@ -9656,23 +9656,23 @@
         <v>4.1910965386293339E-2</v>
       </c>
       <c r="H153">
-        <f>A153*2*12</f>
+        <f t="shared" si="16"/>
         <v>1.0062461042472934</v>
       </c>
       <c r="I153">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>2.9711558739795422E-5</v>
       </c>
       <c r="K153">
-        <f>H153/4</f>
+        <f t="shared" si="17"/>
         <v>0.25156152606182336</v>
       </c>
       <c r="L153">
-        <f>I153/4</f>
+        <f t="shared" si="18"/>
         <v>7.4278896849488555E-6</v>
       </c>
       <c r="M153">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.2515689539515083</v>
       </c>
     </row>
@@ -9696,23 +9696,23 @@
         <v>8.8620521761865933E-6</v>
       </c>
       <c r="H154">
-        <f>A154*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.63786372320039253</v>
       </c>
       <c r="I154">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.95645851166189388</v>
       </c>
       <c r="K154">
-        <f>H154/4</f>
+        <f t="shared" si="17"/>
         <v>0.15946593080009813</v>
       </c>
       <c r="L154">
-        <f>I154/4</f>
+        <f t="shared" si="18"/>
         <v>0.23911462791547347</v>
       </c>
       <c r="M154">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.39858055871557163</v>
       </c>
     </row>
@@ -9736,23 +9736,23 @@
         <v>4.3086912537888518E-4</v>
       </c>
       <c r="H155">
-        <f>A155*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.20154848439384698</v>
       </c>
       <c r="I155">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.28678588798973825</v>
       </c>
       <c r="K155">
-        <f>H155/4</f>
+        <f t="shared" si="17"/>
         <v>5.0387121098461746E-2</v>
       </c>
       <c r="L155">
-        <f>I155/4</f>
+        <f t="shared" si="18"/>
         <v>7.1696471997434563E-2</v>
       </c>
       <c r="M155">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.12208359309589631</v>
       </c>
     </row>
@@ -9776,23 +9776,23 @@
         <v>7.257050307122409E-4</v>
       </c>
       <c r="H156">
-        <f>A156*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.24233048321843967</v>
       </c>
       <c r="I156">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.33735095571298457</v>
       </c>
       <c r="K156">
-        <f>H156/4</f>
+        <f t="shared" si="17"/>
         <v>6.0582620804609917E-2</v>
       </c>
       <c r="L156">
-        <f>I156/4</f>
+        <f t="shared" si="18"/>
         <v>8.4337738928246142E-2</v>
       </c>
       <c r="M156">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.14492035973285605</v>
       </c>
     </row>
@@ -9816,23 +9816,23 @@
         <v>9.822593741769016E-5</v>
       </c>
       <c r="H157">
-        <f>A157*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.64132287167742574</v>
       </c>
       <c r="I157">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.95878959789463458</v>
       </c>
       <c r="K157">
-        <f>H157/4</f>
+        <f t="shared" si="17"/>
         <v>0.16033071791935644</v>
       </c>
       <c r="L157">
-        <f>I157/4</f>
+        <f t="shared" si="18"/>
         <v>0.23969739947365865</v>
       </c>
       <c r="M157">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.40002811739301508</v>
       </c>
     </row>
@@ -9856,23 +9856,23 @@
         <v>3.94229498662358E-4</v>
       </c>
       <c r="H158">
-        <f>A158*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.19714716606547322</v>
       </c>
       <c r="I158">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.28149745421116806</v>
       </c>
       <c r="K158">
-        <f>H158/4</f>
+        <f t="shared" si="17"/>
         <v>4.9286791516368306E-2</v>
       </c>
       <c r="L158">
-        <f>I158/4</f>
+        <f t="shared" si="18"/>
         <v>7.0374363552792016E-2</v>
       </c>
       <c r="M158">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.11966115506916032</v>
       </c>
     </row>
@@ -9896,23 +9896,23 @@
         <v>9.7326069603190456E-6</v>
       </c>
       <c r="H159">
-        <f>A159*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.64376389332646489</v>
       </c>
       <c r="I159">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.96528108265359425</v>
       </c>
       <c r="K159">
-        <f>H159/4</f>
+        <f t="shared" si="17"/>
         <v>0.16094097333161622</v>
       </c>
       <c r="L159">
-        <f>I159/4</f>
+        <f t="shared" si="18"/>
         <v>0.24132027066339856</v>
       </c>
       <c r="M159">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.40226124399501478</v>
       </c>
     </row>
@@ -9936,23 +9936,23 @@
         <v>4.1897371003167393E-2</v>
       </c>
       <c r="H160">
-        <f>A160*2*12</f>
+        <f t="shared" si="16"/>
         <v>1.0059310821555156</v>
       </c>
       <c r="I160">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>3.0310196608489668E-5</v>
       </c>
       <c r="K160">
-        <f>H160/4</f>
+        <f t="shared" si="17"/>
         <v>0.25148277053887891</v>
       </c>
       <c r="L160">
-        <f>I160/4</f>
+        <f t="shared" si="18"/>
         <v>7.5775491521224169E-6</v>
       </c>
       <c r="M160">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.25149034808803106</v>
       </c>
     </row>
@@ -9976,23 +9976,23 @@
         <v>3.1320422905342313E-4</v>
       </c>
       <c r="H161">
-        <f>A161*2*12</f>
+        <f t="shared" si="16"/>
         <v>0.17868581152679855</v>
       </c>
       <c r="I161">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.25812318307494519</v>
       </c>
       <c r="K161">
-        <f>H161/4</f>
+        <f t="shared" si="17"/>
         <v>4.4671452881699637E-2</v>
       </c>
       <c r="L161">
-        <f>I161/4</f>
+        <f t="shared" si="18"/>
         <v>6.4530795768736299E-2</v>
       </c>
       <c r="M161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.10920224865043593</v>
       </c>
     </row>
@@ -10016,23 +10016,23 @@
         <v>6.3158230051014465E-4</v>
       </c>
       <c r="H162">
-        <f>A162*2*12</f>
+        <f t="shared" ref="H162:H193" si="21">A162*2*12</f>
         <v>0.23042375005317661</v>
       </c>
       <c r="I162">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.32288210835230002</v>
       </c>
       <c r="K162">
-        <f>H162/4</f>
+        <f t="shared" ref="K162:K193" si="22">H162/4</f>
         <v>5.7605937513294153E-2</v>
       </c>
       <c r="L162">
-        <f>I162/4</f>
+        <f t="shared" ref="L162:L193" si="23">I162/4</f>
         <v>8.0720527088075006E-2</v>
       </c>
       <c r="M162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.13832646460136916</v>
       </c>
     </row>
@@ -10056,23 +10056,23 @@
         <v>4.4536581376644112E-3</v>
       </c>
       <c r="H163">
-        <f>A163*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.60099116250685425</v>
       </c>
       <c r="I163">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.74105648863606666</v>
       </c>
       <c r="K163">
-        <f>H163/4</f>
+        <f t="shared" si="22"/>
         <v>0.15024779062671356</v>
       </c>
       <c r="L163">
-        <f>I163/4</f>
+        <f t="shared" si="23"/>
         <v>0.18526412215901666</v>
       </c>
       <c r="M163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.33551191278573023</v>
       </c>
     </row>
@@ -10096,23 +10096,23 @@
         <v>6.265475470372712E-7</v>
       </c>
       <c r="H164">
-        <f>A164*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.65878182345679104</v>
       </c>
       <c r="I164">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.98812770492120294</v>
       </c>
       <c r="K164">
-        <f>H164/4</f>
+        <f t="shared" si="22"/>
         <v>0.16469545586419776</v>
       </c>
       <c r="L164">
-        <f>I164/4</f>
+        <f t="shared" si="23"/>
         <v>0.24703192623030074</v>
       </c>
       <c r="M164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.4117273820944985</v>
       </c>
     </row>
@@ -10136,23 +10136,23 @@
         <v>3.1957165122789008E-4</v>
       </c>
       <c r="H165">
-        <f>A165*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.65804514051239105</v>
       </c>
       <c r="I165">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.97668908187997927</v>
       </c>
       <c r="K165">
-        <f>H165/4</f>
+        <f t="shared" si="22"/>
         <v>0.16451128512809776</v>
       </c>
       <c r="L165">
-        <f>I165/4</f>
+        <f t="shared" si="23"/>
         <v>0.24417227046999482</v>
       </c>
       <c r="M165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.40868355559809255</v>
       </c>
     </row>
@@ -10176,23 +10176,23 @@
         <v>2.5421626744509551E-4</v>
       </c>
       <c r="H166">
-        <f>A166*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.17584922851062018</v>
       </c>
       <c r="I166">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.2545870384828075</v>
       </c>
       <c r="K166">
-        <f>H166/4</f>
+        <f t="shared" si="22"/>
         <v>4.3962307127655045E-2</v>
       </c>
       <c r="L166">
-        <f>I166/4</f>
+        <f t="shared" si="23"/>
         <v>6.3646759620701876E-2</v>
       </c>
       <c r="M166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.10760906674835692</v>
       </c>
     </row>
@@ -10216,23 +10216,23 @@
         <v>6.5471344549902414E-5</v>
       </c>
       <c r="H167">
-        <f>A167*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.14238809948997083</v>
       </c>
       <c r="I167">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.21118278436697799</v>
       </c>
       <c r="K167">
-        <f>H167/4</f>
+        <f t="shared" si="22"/>
         <v>3.5597024872492708E-2</v>
       </c>
       <c r="L167">
-        <f>I167/4</f>
+        <f t="shared" si="23"/>
         <v>5.2795696091744497E-2</v>
       </c>
       <c r="M167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>8.8392720964237198E-2</v>
       </c>
     </row>
@@ -10256,23 +10256,23 @@
         <v>1.3440973905623667E-4</v>
       </c>
       <c r="H168">
-        <f>A168*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.15917739994493313</v>
       </c>
       <c r="I168">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.23388647842907895</v>
       </c>
       <c r="K168">
-        <f>H168/4</f>
+        <f t="shared" si="22"/>
         <v>3.9794349986233282E-2</v>
       </c>
       <c r="L168">
-        <f>I168/4</f>
+        <f t="shared" si="23"/>
         <v>5.8471619607269737E-2</v>
       </c>
       <c r="M168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>9.8265969593503019E-2</v>
       </c>
     </row>
@@ -10296,23 +10296,23 @@
         <v>6.2234993670354883E-3</v>
       </c>
       <c r="H169">
-        <f>A169*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.60940085394513055</v>
       </c>
       <c r="I169">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.68981605950710556</v>
       </c>
       <c r="K169">
-        <f>H169/4</f>
+        <f t="shared" si="22"/>
         <v>0.15235021348628264</v>
       </c>
       <c r="L169">
-        <f>I169/4</f>
+        <f t="shared" si="23"/>
         <v>0.17245401487677639</v>
       </c>
       <c r="M169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.324804228363059</v>
       </c>
     </row>
@@ -10336,23 +10336,23 @@
         <v>7.8620927318264616E-6</v>
       </c>
       <c r="H170">
-        <f>A170*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.64651196760696727</v>
       </c>
       <c r="I170">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.96946616623839243</v>
       </c>
       <c r="K170">
-        <f>H170/4</f>
+        <f t="shared" si="22"/>
         <v>0.16162799190174182</v>
       </c>
       <c r="L170">
-        <f>I170/4</f>
+        <f t="shared" si="23"/>
         <v>0.24236654155959811</v>
       </c>
       <c r="M170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.40399453346133996</v>
       </c>
     </row>
@@ -10376,23 +10376,23 @@
         <v>9.9160288977052732E-6</v>
       </c>
       <c r="H171">
-        <f>A171*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.62663216280619138</v>
       </c>
       <c r="I171">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.93957640548289567</v>
       </c>
       <c r="K171">
-        <f>H171/4</f>
+        <f t="shared" si="22"/>
         <v>0.15665804070154785</v>
       </c>
       <c r="L171">
-        <f>I171/4</f>
+        <f t="shared" si="23"/>
         <v>0.23489410137072392</v>
       </c>
       <c r="M171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.39155214207227174</v>
       </c>
     </row>
@@ -10416,23 +10416,23 @@
         <v>1.5496752514901234E-3</v>
       </c>
       <c r="H172">
-        <f>A172*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.31609764707055144</v>
       </c>
       <c r="I172">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.41833261156442569</v>
       </c>
       <c r="K172">
-        <f>H172/4</f>
+        <f t="shared" si="22"/>
         <v>7.9024411767637859E-2</v>
       </c>
       <c r="L172">
-        <f>I172/4</f>
+        <f t="shared" si="23"/>
         <v>0.10458315289110642</v>
       </c>
       <c r="M172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.18360756465874428</v>
       </c>
     </row>
@@ -10456,23 +10456,23 @@
         <v>4.1799446661104973E-2</v>
       </c>
       <c r="H173">
-        <f>A173*2*12</f>
+        <f t="shared" si="21"/>
         <v>1.0035434267212784</v>
       </c>
       <c r="I173">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>3.0514740681782624E-5</v>
       </c>
       <c r="K173">
-        <f>H173/4</f>
+        <f t="shared" si="22"/>
         <v>0.2508858566803196</v>
       </c>
       <c r="L173">
-        <f>I173/4</f>
+        <f t="shared" si="23"/>
         <v>7.6286851704456559E-6</v>
       </c>
       <c r="M173">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.25089348536549005</v>
       </c>
     </row>
@@ -10496,23 +10496,23 @@
         <v>1.0141357235537306E-5</v>
       </c>
       <c r="H174">
-        <f>A174*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.64625869837804584</v>
       </c>
       <c r="I174">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.96900964149757585</v>
       </c>
       <c r="K174">
-        <f>H174/4</f>
+        <f t="shared" si="22"/>
         <v>0.16156467459451146</v>
       </c>
       <c r="L174">
-        <f>I174/4</f>
+        <f t="shared" si="23"/>
         <v>0.24225241037439396</v>
       </c>
       <c r="M174">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.40381708496890545</v>
       </c>
     </row>
@@ -10536,23 +10536,23 @@
         <v>3.2176790730920782E-3</v>
       </c>
       <c r="H175">
-        <f>A175*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.41719735433191896</v>
       </c>
       <c r="I175">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.50992540491345506</v>
       </c>
       <c r="K175">
-        <f>H175/4</f>
+        <f t="shared" si="22"/>
         <v>0.10429933858297974</v>
       </c>
       <c r="L175">
-        <f>I175/4</f>
+        <f t="shared" si="23"/>
         <v>0.12748135122836377</v>
       </c>
       <c r="M175">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.2317806898113435</v>
       </c>
     </row>
@@ -10576,23 +10576,23 @@
         <v>9.8426575577421617E-6</v>
       </c>
       <c r="H176">
-        <f>A176*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.6209042752984042</v>
       </c>
       <c r="I176">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.93098691582955739</v>
       </c>
       <c r="K176">
-        <f>H176/4</f>
+        <f t="shared" si="22"/>
         <v>0.15522606882460105</v>
       </c>
       <c r="L176">
-        <f>I176/4</f>
+        <f t="shared" si="23"/>
         <v>0.23274672895738935</v>
       </c>
       <c r="M176">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.3879727977819904</v>
       </c>
     </row>
@@ -10616,23 +10616,23 @@
         <v>1.0438004473794208E-4</v>
       </c>
       <c r="H177">
-        <f>A177*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.64648119115167335</v>
       </c>
       <c r="I177">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.96632646098305985</v>
       </c>
       <c r="K177">
-        <f>H177/4</f>
+        <f t="shared" si="22"/>
         <v>0.16162029778791834</v>
       </c>
       <c r="L177">
-        <f>I177/4</f>
+        <f t="shared" si="23"/>
         <v>0.24158161524576496</v>
       </c>
       <c r="M177">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.4032019130336833</v>
       </c>
     </row>
@@ -10656,23 +10656,23 @@
         <v>7.2829839290972526E-5</v>
       </c>
       <c r="H178">
-        <f>A178*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.58611749194742646</v>
       </c>
       <c r="I178">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.87674081449470864</v>
       </c>
       <c r="K178">
-        <f>H178/4</f>
+        <f t="shared" si="22"/>
         <v>0.14652937298685662</v>
       </c>
       <c r="L178">
-        <f>I178/4</f>
+        <f t="shared" si="23"/>
         <v>0.21918520362367716</v>
       </c>
       <c r="M178">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.36571457661053375</v>
       </c>
     </row>
@@ -10696,23 +10696,23 @@
         <v>8.4079245117270329E-4</v>
       </c>
       <c r="H179">
-        <f>A179*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.25286987678190026</v>
       </c>
       <c r="I179">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.34901790846660624</v>
       </c>
       <c r="K179">
-        <f>H179/4</f>
+        <f t="shared" si="22"/>
         <v>6.3217469195475065E-2</v>
       </c>
       <c r="L179">
-        <f>I179/4</f>
+        <f t="shared" si="23"/>
         <v>8.725447711665156E-2</v>
       </c>
       <c r="M179">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.15047194631212663</v>
       </c>
     </row>
@@ -10736,23 +10736,23 @@
         <v>8.842621190621535E-5</v>
       </c>
       <c r="H180">
-        <f>A180*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.14531618597953377</v>
       </c>
       <c r="I180">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.21475044715354541</v>
       </c>
       <c r="K180">
-        <f>H180/4</f>
+        <f t="shared" si="22"/>
         <v>3.6329046494883444E-2</v>
       </c>
       <c r="L180">
-        <f>I180/4</f>
+        <f t="shared" si="23"/>
         <v>5.3687611788386352E-2</v>
       </c>
       <c r="M180">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>9.0016658283269796E-2</v>
       </c>
     </row>
@@ -10776,23 +10776,23 @@
         <v>2.8698590928714304E-3</v>
       </c>
       <c r="H181">
-        <f>A181*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.39936203393684211</v>
       </c>
       <c r="I181">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.49569426070424027</v>
       </c>
       <c r="K181">
-        <f>H181/4</f>
+        <f t="shared" si="22"/>
         <v>9.9840508484210527E-2</v>
       </c>
       <c r="L181">
-        <f>I181/4</f>
+        <f t="shared" si="23"/>
         <v>0.12392356517606007</v>
       </c>
       <c r="M181">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.2237640736602706</v>
       </c>
     </row>
@@ -10816,23 +10816,23 @@
         <v>4.3188821874183219E-5</v>
       </c>
       <c r="H182">
-        <f>A182*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.67378841749038243</v>
       </c>
       <c r="I182">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.009185407610584</v>
       </c>
       <c r="K182">
-        <f>H182/4</f>
+        <f t="shared" si="22"/>
         <v>0.16844710437259561</v>
       </c>
       <c r="L182">
-        <f>I182/4</f>
+        <f t="shared" si="23"/>
         <v>0.25229635190264599</v>
       </c>
       <c r="M182">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.42074345627524157</v>
       </c>
     </row>
@@ -10856,23 +10856,23 @@
         <v>4.5274268660371638E-4</v>
       </c>
       <c r="H183">
-        <f>A183*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.20640766316339018</v>
       </c>
       <c r="I183">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.29329244574536129</v>
       </c>
       <c r="K183">
-        <f>H183/4</f>
+        <f t="shared" si="22"/>
         <v>5.1601915790847545E-2</v>
       </c>
       <c r="L183">
-        <f>I183/4</f>
+        <f t="shared" si="23"/>
         <v>7.3323111436340321E-2</v>
       </c>
       <c r="M183">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.12492502722718787</v>
       </c>
     </row>
@@ -10896,23 +10896,23 @@
         <v>1.050555171786842E-4</v>
       </c>
       <c r="H184">
-        <f>A184*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.60394792935447394</v>
       </c>
       <c r="I184">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.90252519538694131</v>
       </c>
       <c r="K184">
-        <f>H184/4</f>
+        <f t="shared" si="22"/>
         <v>0.15098698233861849</v>
       </c>
       <c r="L184">
-        <f>I184/4</f>
+        <f t="shared" si="23"/>
         <v>0.22563129884673533</v>
       </c>
       <c r="M184">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.37661828118535379</v>
       </c>
     </row>
@@ -10936,23 +10936,23 @@
         <v>1.0717947774876172E-4</v>
       </c>
       <c r="H185">
-        <f>A185*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.15163726075127698</v>
       </c>
       <c r="I185">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.22355762337516974</v>
       </c>
       <c r="K185">
-        <f>H185/4</f>
+        <f t="shared" si="22"/>
         <v>3.7909315187819245E-2</v>
       </c>
       <c r="L185">
-        <f>I185/4</f>
+        <f t="shared" si="23"/>
         <v>5.5889405843792435E-2</v>
       </c>
       <c r="M185">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>9.3798721031611687E-2</v>
       </c>
     </row>
@@ -10976,23 +10976,23 @@
         <v>7.9322536750615674E-4</v>
       </c>
       <c r="H186">
-        <f>A186*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.21578502052647269</v>
       </c>
       <c r="I186">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.29510377209932681</v>
       </c>
       <c r="K186">
-        <f>H186/4</f>
+        <f t="shared" si="22"/>
         <v>5.3946255131618173E-2</v>
       </c>
       <c r="L186">
-        <f>I186/4</f>
+        <f t="shared" si="23"/>
         <v>7.3775943024831703E-2</v>
       </c>
       <c r="M186">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.12772219815644986</v>
       </c>
     </row>
@@ -11016,23 +11016,23 @@
         <v>1.9989104145991677E-4</v>
       </c>
       <c r="H187">
-        <f>A187*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.78492666301395175</v>
       </c>
       <c r="I187">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.1709601940359982</v>
       </c>
       <c r="K187">
-        <f>H187/4</f>
+        <f t="shared" si="22"/>
         <v>0.19623166575348794</v>
       </c>
       <c r="L187">
-        <f>I187/4</f>
+        <f t="shared" si="23"/>
         <v>0.29274004850899954</v>
       </c>
       <c r="M187">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.48897171426248748</v>
       </c>
     </row>
@@ -11056,23 +11056,23 @@
         <v>3.8465361778729484E-4</v>
       </c>
       <c r="H188">
-        <f>A188*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.19574523256509382</v>
       </c>
       <c r="I188">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.27974333476271118</v>
       </c>
       <c r="K188">
-        <f>H188/4</f>
+        <f t="shared" si="22"/>
         <v>4.8936308141273456E-2</v>
       </c>
       <c r="L188">
-        <f>I188/4</f>
+        <f t="shared" si="23"/>
         <v>6.9935833690677796E-2</v>
       </c>
       <c r="M188">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.11887214183195124</v>
       </c>
     </row>
@@ -11096,23 +11096,23 @@
         <v>4.4344533143563945E-5</v>
       </c>
       <c r="H189">
-        <f>A189*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.67398959079546616</v>
       </c>
       <c r="I189">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>1.0093986415256597</v>
       </c>
       <c r="K189">
-        <f>H189/4</f>
+        <f t="shared" si="22"/>
         <v>0.16849739769886654</v>
       </c>
       <c r="L189">
-        <f>I189/4</f>
+        <f t="shared" si="23"/>
         <v>0.25234966038141493</v>
       </c>
       <c r="M189">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.42084705808028144</v>
       </c>
     </row>
@@ -11136,23 +11136,23 @@
         <v>1.2225703303208975E-4</v>
       </c>
       <c r="H190">
-        <f>A190*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.5944023527547726</v>
       </c>
       <c r="I190">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.88719576208528861</v>
       </c>
       <c r="K190">
-        <f>H190/4</f>
+        <f t="shared" si="22"/>
         <v>0.14860058818869315</v>
       </c>
       <c r="L190">
-        <f>I190/4</f>
+        <f t="shared" si="23"/>
         <v>0.22179894052132215</v>
       </c>
       <c r="M190">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.3703995287100153</v>
       </c>
     </row>
@@ -11176,23 +11176,23 @@
         <v>4.200505703643987E-2</v>
       </c>
       <c r="H191">
-        <f>A191*2*12</f>
+        <f t="shared" si="21"/>
         <v>1.0084932922900749</v>
       </c>
       <c r="I191">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>3.1865907043126352E-5</v>
       </c>
       <c r="K191">
-        <f>H191/4</f>
+        <f t="shared" si="22"/>
         <v>0.25212332307251872</v>
       </c>
       <c r="L191">
-        <f>I191/4</f>
+        <f t="shared" si="23"/>
         <v>7.9664767607815881E-6</v>
       </c>
       <c r="M191">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.25213128954927949</v>
       </c>
     </row>
@@ -11216,23 +11216,23 @@
         <v>8.2441415405441081E-4</v>
       </c>
       <c r="H192">
-        <f>A192*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.25138435693006306</v>
       </c>
       <c r="I192">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.34738033406084268</v>
       </c>
       <c r="K192">
-        <f>H192/4</f>
+        <f t="shared" si="22"/>
         <v>6.2846089232515764E-2</v>
       </c>
       <c r="L192">
-        <f>I192/4</f>
+        <f t="shared" si="23"/>
         <v>8.6845083515210669E-2</v>
       </c>
       <c r="M192">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.14969117274772642</v>
       </c>
     </row>
@@ -11256,23 +11256,23 @@
         <v>9.5206519509385837E-5</v>
       </c>
       <c r="H193">
-        <f>A193*2*12</f>
+        <f t="shared" si="21"/>
         <v>0.15963235425386677</v>
       </c>
       <c r="I193">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.23597719353577307</v>
       </c>
       <c r="K193">
-        <f>H193/4</f>
+        <f t="shared" si="22"/>
         <v>3.9908088563466691E-2</v>
       </c>
       <c r="L193">
-        <f>I193/4</f>
+        <f t="shared" si="23"/>
         <v>5.8994298383943267E-2</v>
       </c>
       <c r="M193">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>9.8902386947409965E-2</v>
       </c>
     </row>
@@ -11296,23 +11296,23 @@
         <v>9.7942240361729305E-5</v>
       </c>
       <c r="H194">
-        <f>A194*2*12</f>
+        <f t="shared" ref="H194:H201" si="24">A194*2*12</f>
         <v>0.63686515872951732</v>
       </c>
       <c r="I194">
-        <f t="shared" si="4"/>
+        <f t="shared" si="19"/>
         <v>0.95211021090696879</v>
       </c>
       <c r="K194">
-        <f>H194/4</f>
+        <f t="shared" ref="K194:K201" si="25">H194/4</f>
         <v>0.15921628968237933</v>
       </c>
       <c r="L194">
-        <f>I194/4</f>
+        <f t="shared" ref="L194:L201" si="26">I194/4</f>
         <v>0.2380275527267422</v>
       </c>
       <c r="M194">
-        <f t="shared" si="5"/>
+        <f t="shared" si="20"/>
         <v>0.39724384240912153</v>
       </c>
     </row>
@@ -11336,23 +11336,23 @@
         <v>1.1711892563124704E-4</v>
       </c>
       <c r="H195">
-        <f>A195*2*12</f>
+        <f t="shared" si="24"/>
         <v>0.57796045361601667</v>
       </c>
       <c r="I195">
-        <f t="shared" ref="I195:I201" si="6">B195*3*12</f>
+        <f t="shared" ref="I195:I201" si="27">B195*3*12</f>
         <v>0.86314937422911642</v>
       </c>
       <c r="K195">
-        <f>H195/4</f>
+        <f t="shared" si="25"/>
         <v>0.14449011340400417</v>
       </c>
       <c r="L195">
-        <f>I195/4</f>
+        <f t="shared" si="26"/>
         <v>0.2157873435572791</v>
       </c>
       <c r="M195">
-        <f t="shared" ref="M195:M201" si="7">SUM(K195:L195)</f>
+        <f t="shared" ref="M195:M201" si="28">SUM(K195:L195)</f>
         <v>0.36027745696128327</v>
       </c>
     </row>
@@ -11376,23 +11376,23 @@
         <v>4.2074237981831984E-2</v>
       </c>
       <c r="H196">
-        <f>A196*2*12</f>
+        <f t="shared" si="24"/>
         <v>1.0102459321026662</v>
       </c>
       <c r="I196">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>1.681746074065868E-4</v>
       </c>
       <c r="K196">
-        <f>H196/4</f>
+        <f t="shared" si="25"/>
         <v>0.25256148302566656</v>
       </c>
       <c r="L196">
-        <f>I196/4</f>
+        <f t="shared" si="26"/>
         <v>4.20436518516467E-5</v>
       </c>
       <c r="M196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.25260352667751818</v>
       </c>
     </row>
@@ -11416,23 +11416,23 @@
         <v>4.1972202134269131E-2</v>
       </c>
       <c r="H197">
-        <f>A197*2*12</f>
+        <f t="shared" si="24"/>
         <v>1.0077075425848796</v>
       </c>
       <c r="I197">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>2.9926077368275494E-5</v>
       </c>
       <c r="K197">
-        <f>H197/4</f>
+        <f t="shared" si="25"/>
         <v>0.2519268856462199</v>
       </c>
       <c r="L197">
-        <f>I197/4</f>
+        <f t="shared" si="26"/>
         <v>7.4815193420688734E-6</v>
       </c>
       <c r="M197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.25193436716556195</v>
       </c>
     </row>
@@ -11456,23 +11456,23 @@
         <v>5.2160896076707825E-5</v>
       </c>
       <c r="H198">
-        <f>A198*2*12</f>
+        <f t="shared" si="24"/>
         <v>0.14136157105589137</v>
       </c>
       <c r="I198">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>0.21011857492657779</v>
       </c>
       <c r="K198">
-        <f>H198/4</f>
+        <f t="shared" si="25"/>
         <v>3.5340392763972842E-2</v>
       </c>
       <c r="L198">
-        <f>I198/4</f>
+        <f t="shared" si="26"/>
         <v>5.2529643731644447E-2</v>
       </c>
       <c r="M198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>8.7870036495617282E-2</v>
       </c>
     </row>
@@ -11496,23 +11496,23 @@
         <v>5.9106698833477568E-4</v>
       </c>
       <c r="H199">
-        <f>A199*2*12</f>
+        <f t="shared" si="24"/>
         <v>0.22484209809003763</v>
       </c>
       <c r="I199">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>0.31596728732880941</v>
       </c>
       <c r="K199">
-        <f>H199/4</f>
+        <f t="shared" si="25"/>
         <v>5.6210524522509409E-2</v>
       </c>
       <c r="L199">
-        <f>I199/4</f>
+        <f t="shared" si="26"/>
         <v>7.8991821832202352E-2</v>
       </c>
       <c r="M199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.13520234635471176</v>
       </c>
     </row>
@@ -11536,23 +11536,23 @@
         <v>8.2425666062128609E-6</v>
       </c>
       <c r="H200">
-        <f>A200*2*12</f>
+        <f t="shared" si="24"/>
         <v>0.65044563975800673</v>
       </c>
       <c r="I200">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>0.97535263656441407</v>
       </c>
       <c r="K200">
-        <f>H200/4</f>
+        <f t="shared" si="25"/>
         <v>0.16261140993950168</v>
       </c>
       <c r="L200">
-        <f>I200/4</f>
+        <f t="shared" si="26"/>
         <v>0.24383815914110352</v>
       </c>
       <c r="M200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.4064495690806052</v>
       </c>
     </row>
@@ -11576,23 +11576,23 @@
         <v>4.1888440698813929E-2</v>
       </c>
       <c r="H201">
-        <f>A201*2*12</f>
+        <f t="shared" si="24"/>
         <v>1.0057096357203696</v>
       </c>
       <c r="I201">
-        <f t="shared" si="6"/>
+        <f t="shared" si="27"/>
         <v>2.9993119775978763E-5</v>
       </c>
       <c r="K201">
-        <f>H201/4</f>
+        <f t="shared" si="25"/>
         <v>0.25142740893009241</v>
       </c>
       <c r="L201">
-        <f>I201/4</f>
+        <f t="shared" si="26"/>
         <v>7.4982799439946907E-6</v>
       </c>
       <c r="M201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="28"/>
         <v>0.25143490721003642</v>
       </c>
     </row>
@@ -11622,9 +11622,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -12642,12 +12642,12 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
